--- a/Iteración 0/Estimaciones y calendario.xlsx
+++ b/Iteración 0/Estimaciones y calendario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8FD96A-D22B-434C-9FAC-56D0DC7194B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E445FD9C-0645-4C27-97C5-9E55AF25D980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{82B16C0C-8046-4CC9-B5E3-538EFAD428B8}"/>
+    <workbookView xWindow="2565" yWindow="1140" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{82B16C0C-8046-4CC9-B5E3-538EFAD428B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimacion de tiempo" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="90">
   <si>
     <t>Servidor</t>
   </si>
@@ -288,13 +288,43 @@
   <si>
     <t>25
 It.3</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Trajadores</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Salario</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -839,11 +869,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -908,6 +1058,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1058,7 +1216,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1360,7 +1518,7 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
@@ -1368,12 +1526,12 @@
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.149999999999999">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -1402,7 +1560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.149999999999999">
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1431,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.149999999999999">
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1460,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.149999999999999">
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1489,7 +1647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.149999999999999">
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1518,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.149999999999999">
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1547,7 +1705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.149999999999999">
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1576,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.149999999999999">
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1605,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.149999999999999">
+    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1634,12 +1792,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.149999999999999">
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
@@ -1668,7 +1826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19.149999999999999">
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1697,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19.149999999999999">
+    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1726,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19.149999999999999">
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1755,15 +1913,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19.149999999999999">
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.149999999999999">
+    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>1</v>
       </c>
@@ -1792,7 +1950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19.149999999999999">
+    <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1821,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19.149999999999999">
+    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1850,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.149999999999999">
+    <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1879,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.149999999999999">
+    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1908,16 +2066,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19.149999999999999">
+    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="19.149999999999999">
+    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="19.149999999999999">
+    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="19.149999999999999">
+    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1975,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="19.149999999999999">
+    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2004,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.149999999999999">
+    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2033,12 +2191,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19.149999999999999">
+    <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2067,7 +2225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="19.149999999999999">
+    <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2101,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="19.149999999999999">
+    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2135,7 +2293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="19.149999999999999">
+    <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2169,7 +2327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="19.149999999999999">
+    <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2203,7 +2361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="19.149999999999999">
+    <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2237,7 +2395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="19.149999999999999">
+    <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6</v>
       </c>
@@ -2271,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="19.149999999999999">
+    <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>7</v>
       </c>
@@ -2305,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="19.149999999999999">
+    <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2339,7 +2497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H43" s="2" t="s">
         <v>30</v>
       </c>
@@ -2348,12 +2506,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>32</v>
       </c>
@@ -2379,7 +2537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>34</v>
       </c>
@@ -2410,7 +2568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>35</v>
       </c>
@@ -2441,7 +2599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>36</v>
       </c>
@@ -2472,7 +2630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>37</v>
       </c>
@@ -2503,7 +2661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>38</v>
       </c>
@@ -2534,7 +2692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>39</v>
       </c>
@@ -2565,7 +2723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>40</v>
       </c>
@@ -2596,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>41</v>
       </c>
@@ -2638,18 +2796,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEAEB5C-F7DD-49B8-A4DF-0E3F9D983495}">
   <dimension ref="A1:CK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:65">
+    <row r="1" spans="2:65" x14ac:dyDescent="0.25">
       <c r="O1" t="s">
         <v>42</v>
       </c>
@@ -2681,7 +2840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:65" ht="15">
+    <row r="2" spans="2:65" x14ac:dyDescent="0.25">
       <c r="O2" t="s">
         <v>43</v>
       </c>
@@ -2713,7 +2872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:65">
+    <row r="3" spans="2:65" x14ac:dyDescent="0.25">
       <c r="O3" t="s">
         <v>44</v>
       </c>
@@ -2745,50 +2904,59 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:65" ht="15" thickBot="1">
+    <row r="4" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:65" ht="15" thickBot="1">
+    <row r="5" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="87" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="87" t="s">
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="87" t="s">
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="90" t="s">
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-    </row>
-    <row r="6" spans="2:65" ht="15" thickBot="1">
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="AB5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="77"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
@@ -2852,8 +3020,18 @@
       <c r="Z6" s="35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="2:65" ht="15">
+      <c r="AB6" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>77</v>
+      </c>
+      <c r="AD6" s="52">
+        <f>(((E7+O7+P7+T7+U7+F7+J7+K7)*50)/2)+(((G7+L7+Q7+V7)*40)/2)+(((H7+M7+R7+W7)*30)/2)+(((I7+N7+S7+X7)*25)/2)</f>
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="7" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>57</v>
       </c>
@@ -2923,8 +3101,18 @@
         <f>SUM(E7:X7)</f>
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="2:65" ht="15">
+      <c r="AB7" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC7" s="23">
+        <v>76</v>
+      </c>
+      <c r="AD7" s="52">
+        <f>(((E7+O7+P7+T7+U7+F7+J7+K7)*50)/2)+(((G7+L7+Q7+V7)*40)/2)+(((H7+M7+R7+W7)*30)/2)+(((I7+N7+S7+X7)*25)/2)</f>
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="8" spans="2:65" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
         <v>54</v>
       </c>
@@ -2994,8 +3182,18 @@
         <f>SUM(E8:X8)</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="2:65" ht="15" thickBot="1">
+      <c r="AB8" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC8" s="23">
+        <v>64</v>
+      </c>
+      <c r="AD8" s="52">
+        <f>(((E8+O8+P8+T8+U8+F8+J8+K8)*50)/2)+(((G8+L8+Q8+V8)*40)/2)+(((H8+M8+R8+W8)*30)/2)+(((I8+N8+S8+X8)*25)/2)</f>
+        <v>2267.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
         <v>57</v>
       </c>
@@ -3062,117 +3260,154 @@
         <f>SUM(E9:X9)</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="2:65">
+      <c r="AB9" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC9" s="23">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="52">
+        <f>(((E8+O8+P8+T8+U8+F8+J8+K8)*50)/2)+(((G8+L8+Q8+V8)*40)/2)+(((H8+M8+R8+W8)*30)/2)+(((I8+N8+S8+X8)*25)/2)</f>
+        <v>2267.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:65" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="92">
         <f>SUM(E7:I9)</f>
         <v>45</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85">
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="93">
         <f>SUM(J7:N9)</f>
         <v>51</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="82">
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="90">
         <f>SUM(O7:S9)</f>
         <v>142</v>
       </c>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="85">
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="93">
         <f>SUM(T7:X9)</f>
         <v>171</v>
       </c>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="86"/>
-    </row>
-    <row r="11" spans="2:65">
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="94"/>
+      <c r="AB10" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC10" s="23">
+        <v>64</v>
+      </c>
+      <c r="AD10" s="52">
+        <f>(((E9+O9+P9+T9+U9+F9+J9+K9)*50)/2)+(((G9+L9+Q9+V9)*40)/2)+(((H9+M9+R9+W9)*30)/2)+(((I9+N9+S9+X9)*25)/2)</f>
+        <v>2342.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="83"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="91"/>
       <c r="Y11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="2:65" ht="15" thickBot="1">
+      <c r="AB11" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC11" s="54">
+        <v>64</v>
+      </c>
+      <c r="AD11" s="55">
+        <f>(((E9+O9+P9+T9+U9+F9+J9+K9)*50)/2)+(((G9+L9+Q9+V9)*40)/2)+(((H9+M9+R9+W9)*30)/2)+(((I9+N9+S9+X9)*25)/2)</f>
+        <v>2342.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="89">
         <f>ROUNDUP(SUM(ROUNDUP(E7/2,0)+ROUNDUP(F8/2,0)+ROUNDUP(G9/2,0)+ROUNDUP(H7/2,0)+ROUNDUP(I8/2,0))/8,0)</f>
         <v>3</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81">
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89">
         <f>ROUNDUP(SUM(ROUNDUP(J9/2,0)+ROUNDUP(K8/2,0)+ROUNDUP(L9/2,0)+ROUNDUP(M7/2,0)+ROUNDUP(N8/2,0))/8,0)</f>
         <v>4</v>
       </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81">
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89">
         <f>ROUNDUP(SUM(MAX(ROUNDUP(O9/2,0),ROUNDUP(O7/2,0),ROUNDUP(O8/2,0))+MAX(ROUNDUP(P7/2,0),ROUNDUP(P8/2,0),ROUNDUP(P9/2,0))+MAX(ROUNDUP(Q7/2,0),ROUNDUP(Q8/2,0),ROUNDUP(Q9/2,0))+MAX(ROUNDUP(R7/2,0),ROUNDUP(R8/2,0),ROUNDUP(R9/2,0))+MAX(ROUNDUP(S7/2,0),ROUNDUP(S8/2,0),ROUNDUP(S9/2,0)))/8,0)</f>
         <v>4</v>
       </c>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81">
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89">
         <f>ROUNDUP(SUM(MAX(ROUNDUP(T9/2,0),ROUNDUP(T7/2,0),ROUNDUP(T8/2,0))+MAX(ROUNDUP(U7/2,0),ROUNDUP(U8/2,0),ROUNDUP(U9/2,0))+MAX(ROUNDUP(V7/2,0),ROUNDUP(V8/2,0),ROUNDUP(V9/2,0))+MAX(ROUNDUP(W7/2,0),ROUNDUP(W8/2,0),ROUNDUP(W9/2,0))+MAX(ROUNDUP(X7/2,0),ROUNDUP(X8/2,0),ROUNDUP(X9/2,0)))/8,0)</f>
         <v>5</v>
       </c>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
       <c r="Y12">
         <f>SUM(E12:X12)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="2:65" ht="15">
+      <c r="AC12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD12">
+        <f>AD6+AD7+AD8+AD9+AD10+AD11</f>
+        <v>14430</v>
+      </c>
+    </row>
+    <row r="14" spans="2:65" x14ac:dyDescent="0.25">
       <c r="U14" s="38"/>
     </row>
-    <row r="16" spans="2:65" s="25" customFormat="1" ht="15">
+    <row r="16" spans="2:65" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <v>1</v>
       </c>
@@ -3366,7 +3601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:89" ht="14.45" customHeight="1">
+    <row r="17" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>34</v>
       </c>
@@ -3374,87 +3609,87 @@
         <v>5</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="74" t="s">
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="56" t="s">
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="57" t="s">
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="Y17" s="57"/>
+      <c r="Y17" s="65"/>
       <c r="AG17" s="24"/>
       <c r="AO17" s="24"/>
       <c r="AW17" s="24"/>
       <c r="BE17" s="24"/>
       <c r="BM17" s="24"/>
     </row>
-    <row r="18" spans="1:89" ht="15">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>35</v>
       </c>
       <c r="Q18" s="24"/>
-      <c r="Z18" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="50" t="s">
+      <c r="Z18" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="53" t="s">
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AE18" s="53"/>
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="53"/>
-      <c r="AJ18" s="53"/>
-      <c r="AK18" s="70" t="s">
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="71"/>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="50" t="s">
+      <c r="AL18" s="79"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="79"/>
+      <c r="AS18" s="79"/>
+      <c r="AT18" s="79"/>
+      <c r="AU18" s="79"/>
+      <c r="AV18" s="79"/>
+      <c r="AW18" s="79"/>
+      <c r="AX18" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AY18" s="57"/>
+      <c r="AY18" s="65"/>
       <c r="BE18" s="24"/>
       <c r="BM18" s="24"/>
     </row>
-    <row r="19" spans="1:89" ht="15">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>36</v>
       </c>
@@ -3466,22 +3701,22 @@
       <c r="AZ19" s="30"/>
       <c r="BA19" s="30"/>
       <c r="BE19" s="24"/>
-      <c r="BF19" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG19" s="49"/>
-      <c r="BH19" s="57" t="s">
+      <c r="BF19" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG19" s="57"/>
+      <c r="BH19" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="BI19" s="57"/>
-      <c r="BJ19" s="51"/>
-      <c r="BK19" s="55" t="s">
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="59"/>
+      <c r="BK19" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-    </row>
-    <row r="20" spans="1:89" ht="15">
+      <c r="BL19" s="64"/>
+      <c r="BM19" s="64"/>
+    </row>
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>37</v>
       </c>
@@ -3492,22 +3727,22 @@
       <c r="AO20" s="24"/>
       <c r="AW20" s="24"/>
       <c r="BE20" s="24"/>
-      <c r="BF20" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG20" s="73"/>
-      <c r="BH20" s="66" t="s">
+      <c r="BF20" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG20" s="81"/>
+      <c r="BH20" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="BI20" s="63"/>
-      <c r="BJ20" s="67"/>
-      <c r="BK20" s="58" t="s">
+      <c r="BI20" s="71"/>
+      <c r="BJ20" s="75"/>
+      <c r="BK20" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="BL20" s="59"/>
-      <c r="BM20" s="59"/>
-    </row>
-    <row r="21" spans="1:89" ht="15">
+      <c r="BL20" s="67"/>
+      <c r="BM20" s="67"/>
+    </row>
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>38</v>
       </c>
@@ -3518,21 +3753,21 @@
       <c r="AO21" s="24"/>
       <c r="AW21" s="24"/>
       <c r="BE21" s="24"/>
-      <c r="BF21" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG21" s="60"/>
-      <c r="BH21" s="52" t="s">
+      <c r="BF21" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="BI21" s="54"/>
-      <c r="BK21" s="68" t="s">
+      <c r="BI21" s="62"/>
+      <c r="BK21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="BL21" s="69"/>
-      <c r="BM21" s="69"/>
-    </row>
-    <row r="22" spans="1:89" ht="15">
+      <c r="BL21" s="77"/>
+      <c r="BM21" s="77"/>
+    </row>
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>39</v>
       </c>
@@ -3545,7 +3780,7 @@
       <c r="BE22" s="24"/>
       <c r="BM22" s="24"/>
     </row>
-    <row r="23" spans="1:89">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>40</v>
       </c>
@@ -3558,7 +3793,7 @@
       <c r="BE23" s="24"/>
       <c r="BM23" s="24"/>
     </row>
-    <row r="24" spans="1:89">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>41</v>
       </c>
@@ -3571,223 +3806,223 @@
       <c r="BE24" s="24"/>
       <c r="BM24" s="24"/>
     </row>
-    <row r="25" spans="1:89">
-      <c r="B25" s="77">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B25" s="85">
         <v>21</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77">
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85">
         <v>22</v>
       </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77">
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85">
         <v>23</v>
       </c>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77">
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85">
         <v>24</v>
       </c>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77">
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="85"/>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="85"/>
+      <c r="AH25" s="85">
         <v>25</v>
       </c>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="77"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77">
+      <c r="AI25" s="85"/>
+      <c r="AJ25" s="85"/>
+      <c r="AK25" s="85"/>
+      <c r="AL25" s="85"/>
+      <c r="AM25" s="85"/>
+      <c r="AN25" s="85"/>
+      <c r="AO25" s="85"/>
+      <c r="AP25" s="85">
         <v>28</v>
       </c>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="77"/>
-      <c r="AU25" s="77"/>
-      <c r="AV25" s="77"/>
-      <c r="AW25" s="77"/>
-      <c r="AX25" s="77">
+      <c r="AQ25" s="85"/>
+      <c r="AR25" s="85"/>
+      <c r="AS25" s="85"/>
+      <c r="AT25" s="85"/>
+      <c r="AU25" s="85"/>
+      <c r="AV25" s="85"/>
+      <c r="AW25" s="85"/>
+      <c r="AX25" s="85">
         <v>29</v>
       </c>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="77"/>
-      <c r="BA25" s="77"/>
-      <c r="BB25" s="77"/>
-      <c r="BC25" s="77"/>
-      <c r="BD25" s="77"/>
-      <c r="BE25" s="77"/>
-      <c r="BF25" s="77">
+      <c r="AY25" s="85"/>
+      <c r="AZ25" s="85"/>
+      <c r="BA25" s="85"/>
+      <c r="BB25" s="85"/>
+      <c r="BC25" s="85"/>
+      <c r="BD25" s="85"/>
+      <c r="BE25" s="85"/>
+      <c r="BF25" s="85">
         <v>30</v>
       </c>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="77"/>
-      <c r="BI25" s="77"/>
-      <c r="BJ25" s="77"/>
-      <c r="BK25" s="77"/>
-      <c r="BL25" s="77"/>
-      <c r="BM25" s="77"/>
-    </row>
-    <row r="26" spans="1:89">
-      <c r="B26" s="78" t="s">
+      <c r="BG25" s="85"/>
+      <c r="BH25" s="85"/>
+      <c r="BI25" s="85"/>
+      <c r="BJ25" s="85"/>
+      <c r="BK25" s="85"/>
+      <c r="BL25" s="85"/>
+      <c r="BM25" s="85"/>
+    </row>
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B26" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-      <c r="AP26" s="79"/>
-      <c r="AQ26" s="79"/>
-      <c r="AR26" s="79"/>
-      <c r="AS26" s="79"/>
-      <c r="AT26" s="79"/>
-      <c r="AU26" s="79"/>
-      <c r="AV26" s="79"/>
-      <c r="AW26" s="79"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="79"/>
-      <c r="AZ26" s="79"/>
-      <c r="BA26" s="79"/>
-      <c r="BB26" s="79"/>
-      <c r="BC26" s="79"/>
-      <c r="BD26" s="79"/>
-      <c r="BE26" s="79"/>
-      <c r="BF26" s="79"/>
-      <c r="BG26" s="79"/>
-      <c r="BH26" s="79"/>
-      <c r="BI26" s="79"/>
-      <c r="BJ26" s="79"/>
-      <c r="BK26" s="79"/>
-      <c r="BL26" s="79"/>
-      <c r="BM26" s="79"/>
-    </row>
-    <row r="27" spans="1:89">
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="79"/>
-      <c r="AR27" s="79"/>
-      <c r="AS27" s="79"/>
-      <c r="AT27" s="79"/>
-      <c r="AU27" s="79"/>
-      <c r="AV27" s="79"/>
-      <c r="AW27" s="79"/>
-      <c r="AX27" s="79"/>
-      <c r="AY27" s="79"/>
-      <c r="AZ27" s="79"/>
-      <c r="BA27" s="79"/>
-      <c r="BB27" s="79"/>
-      <c r="BC27" s="79"/>
-      <c r="BD27" s="79"/>
-      <c r="BE27" s="79"/>
-      <c r="BF27" s="79"/>
-      <c r="BG27" s="79"/>
-      <c r="BH27" s="79"/>
-      <c r="BI27" s="79"/>
-      <c r="BJ27" s="79"/>
-      <c r="BK27" s="79"/>
-      <c r="BL27" s="79"/>
-      <c r="BM27" s="79"/>
-    </row>
-    <row r="32" spans="1:89" s="25" customFormat="1">
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="87"/>
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="87"/>
+      <c r="BA26" s="87"/>
+      <c r="BB26" s="87"/>
+      <c r="BC26" s="87"/>
+      <c r="BD26" s="87"/>
+      <c r="BE26" s="87"/>
+      <c r="BF26" s="87"/>
+      <c r="BG26" s="87"/>
+      <c r="BH26" s="87"/>
+      <c r="BI26" s="87"/>
+      <c r="BJ26" s="87"/>
+      <c r="BK26" s="87"/>
+      <c r="BL26" s="87"/>
+      <c r="BM26" s="87"/>
+    </row>
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="87"/>
+      <c r="AF27" s="87"/>
+      <c r="AG27" s="87"/>
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="87"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="87"/>
+      <c r="AL27" s="87"/>
+      <c r="AM27" s="87"/>
+      <c r="AN27" s="87"/>
+      <c r="AO27" s="87"/>
+      <c r="AP27" s="87"/>
+      <c r="AQ27" s="87"/>
+      <c r="AR27" s="87"/>
+      <c r="AS27" s="87"/>
+      <c r="AT27" s="87"/>
+      <c r="AU27" s="87"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="87"/>
+      <c r="BA27" s="87"/>
+      <c r="BB27" s="87"/>
+      <c r="BC27" s="87"/>
+      <c r="BD27" s="87"/>
+      <c r="BE27" s="87"/>
+      <c r="BF27" s="87"/>
+      <c r="BG27" s="87"/>
+      <c r="BH27" s="87"/>
+      <c r="BI27" s="87"/>
+      <c r="BJ27" s="87"/>
+      <c r="BK27" s="87"/>
+      <c r="BL27" s="87"/>
+      <c r="BM27" s="87"/>
+    </row>
+    <row r="32" spans="1:89" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
         <v>1</v>
       </c>
@@ -4053,7 +4288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:89">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>34</v>
       </c>
@@ -4069,7 +4304,7 @@
       <c r="CC33" s="24"/>
       <c r="CK33" s="24"/>
     </row>
-    <row r="34" spans="1:89" ht="15">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>35</v>
       </c>
@@ -4085,32 +4320,32 @@
       <c r="CC34" s="24"/>
       <c r="CK34" s="24"/>
     </row>
-    <row r="35" spans="1:89" ht="15">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="52" t="s">
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="R35" s="53"/>
+      <c r="R35" s="61"/>
       <c r="Y35" s="24"/>
       <c r="AG35" s="24"/>
       <c r="AO35" s="24"/>
@@ -4121,33 +4356,33 @@
       <c r="CC35" s="24"/>
       <c r="CK35" s="24"/>
     </row>
-    <row r="36" spans="1:89" ht="14.45" customHeight="1">
+    <row r="36" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="58" t="s">
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="60"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="68"/>
       <c r="Q36" s="24"/>
-      <c r="R36" s="62" t="s">
+      <c r="R36" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="S36" s="63"/>
+      <c r="S36" s="71"/>
       <c r="Y36" s="24"/>
       <c r="AG36" s="24"/>
       <c r="AO36" s="24"/>
@@ -4158,34 +4393,34 @@
       <c r="CC36" s="24"/>
       <c r="CK36" s="24"/>
     </row>
-    <row r="37" spans="1:89" ht="15">
+    <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="61" t="s">
+      <c r="C37" s="81"/>
+      <c r="D37" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="64" t="s">
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="S37" s="57"/>
+      <c r="S37" s="65"/>
       <c r="Y37" s="24"/>
       <c r="AG37" s="24"/>
       <c r="AO37" s="24"/>
@@ -4196,23 +4431,23 @@
       <c r="CC37" s="24"/>
       <c r="CK37" s="24"/>
     </row>
-    <row r="38" spans="1:89" ht="15">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>39</v>
       </c>
       <c r="I38" s="24"/>
       <c r="Q38" s="24"/>
       <c r="Y38" s="24"/>
-      <c r="Z38" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA38" s="49"/>
-      <c r="AB38" s="52" t="s">
+      <c r="Z38" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="54"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="62"/>
       <c r="AF38" s="27"/>
       <c r="AG38" s="27"/>
       <c r="AH38" s="27"/>
@@ -4251,22 +4486,22 @@
       <c r="CC38" s="24"/>
       <c r="CK38" s="24"/>
     </row>
-    <row r="39" spans="1:89" ht="15">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I39" s="24"/>
       <c r="Q39" s="24"/>
       <c r="Y39" s="24"/>
-      <c r="Z39" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="55" t="s">
+      <c r="Z39" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="49"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="57"/>
       <c r="AF39" s="28"/>
       <c r="AG39" s="28"/>
       <c r="AH39" s="28"/>
@@ -4293,7 +4528,7 @@
       <c r="CC39" s="24"/>
       <c r="CK39" s="24"/>
     </row>
-    <row r="40" spans="1:89" ht="15">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>41</v>
       </c>
@@ -4303,11 +4538,11 @@
       <c r="Z40" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AB40" s="57" t="s">
+      <c r="AB40" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="AC40" s="57"/>
-      <c r="AD40" s="51"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="59"/>
       <c r="AE40" s="29"/>
       <c r="AF40" s="29"/>
       <c r="AG40" s="29"/>
@@ -4334,299 +4569,299 @@
       <c r="CC40" s="24"/>
       <c r="CK40" s="24"/>
     </row>
-    <row r="41" spans="1:89" ht="15">
-      <c r="B41" s="77">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B41" s="85">
         <v>1</v>
       </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77">
-        <v>2</v>
-      </c>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="77">
-        <v>5</v>
-      </c>
-      <c r="S41" s="77"/>
-      <c r="T41" s="77"/>
-      <c r="U41" s="77"/>
-      <c r="V41" s="77"/>
-      <c r="W41" s="77"/>
-      <c r="X41" s="77"/>
-      <c r="Y41" s="77"/>
-      <c r="Z41" s="77">
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85">
+        <v>2</v>
+      </c>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85">
+        <v>5</v>
+      </c>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="85">
         <v>6</v>
       </c>
-      <c r="AA41" s="77"/>
-      <c r="AB41" s="77"/>
-      <c r="AC41" s="77"/>
-      <c r="AD41" s="77"/>
-      <c r="AE41" s="77"/>
-      <c r="AF41" s="77"/>
-      <c r="AG41" s="77"/>
-      <c r="AH41" s="77">
+      <c r="AA41" s="85"/>
+      <c r="AB41" s="85"/>
+      <c r="AC41" s="85"/>
+      <c r="AD41" s="85"/>
+      <c r="AE41" s="85"/>
+      <c r="AF41" s="85"/>
+      <c r="AG41" s="85"/>
+      <c r="AH41" s="85">
         <v>7</v>
       </c>
-      <c r="AI41" s="77"/>
-      <c r="AJ41" s="77"/>
-      <c r="AK41" s="77"/>
-      <c r="AL41" s="77"/>
-      <c r="AM41" s="77"/>
-      <c r="AN41" s="77"/>
-      <c r="AO41" s="77"/>
-      <c r="AP41" s="77">
+      <c r="AI41" s="85"/>
+      <c r="AJ41" s="85"/>
+      <c r="AK41" s="85"/>
+      <c r="AL41" s="85"/>
+      <c r="AM41" s="85"/>
+      <c r="AN41" s="85"/>
+      <c r="AO41" s="85"/>
+      <c r="AP41" s="85">
         <v>8</v>
       </c>
-      <c r="AQ41" s="77"/>
-      <c r="AR41" s="77"/>
-      <c r="AS41" s="77"/>
-      <c r="AT41" s="77"/>
-      <c r="AU41" s="77"/>
-      <c r="AV41" s="77"/>
-      <c r="AW41" s="77"/>
-      <c r="AX41" s="77">
+      <c r="AQ41" s="85"/>
+      <c r="AR41" s="85"/>
+      <c r="AS41" s="85"/>
+      <c r="AT41" s="85"/>
+      <c r="AU41" s="85"/>
+      <c r="AV41" s="85"/>
+      <c r="AW41" s="85"/>
+      <c r="AX41" s="85">
         <v>9</v>
       </c>
-      <c r="AY41" s="77"/>
-      <c r="AZ41" s="77"/>
-      <c r="BA41" s="77"/>
-      <c r="BB41" s="77"/>
-      <c r="BC41" s="77"/>
-      <c r="BD41" s="77"/>
-      <c r="BE41" s="77"/>
-      <c r="BF41" s="77">
+      <c r="AY41" s="85"/>
+      <c r="AZ41" s="85"/>
+      <c r="BA41" s="85"/>
+      <c r="BB41" s="85"/>
+      <c r="BC41" s="85"/>
+      <c r="BD41" s="85"/>
+      <c r="BE41" s="85"/>
+      <c r="BF41" s="85">
         <v>12</v>
       </c>
-      <c r="BG41" s="77"/>
-      <c r="BH41" s="77"/>
-      <c r="BI41" s="77"/>
-      <c r="BJ41" s="77"/>
-      <c r="BK41" s="77"/>
-      <c r="BL41" s="77"/>
-      <c r="BM41" s="77"/>
-      <c r="BN41" s="77">
+      <c r="BG41" s="85"/>
+      <c r="BH41" s="85"/>
+      <c r="BI41" s="85"/>
+      <c r="BJ41" s="85"/>
+      <c r="BK41" s="85"/>
+      <c r="BL41" s="85"/>
+      <c r="BM41" s="85"/>
+      <c r="BN41" s="85">
         <v>13</v>
       </c>
-      <c r="BO41" s="77"/>
-      <c r="BP41" s="77"/>
-      <c r="BQ41" s="77"/>
-      <c r="BR41" s="77"/>
-      <c r="BS41" s="77"/>
-      <c r="BT41" s="77"/>
-      <c r="BU41" s="77"/>
-      <c r="BV41" s="77">
+      <c r="BO41" s="85"/>
+      <c r="BP41" s="85"/>
+      <c r="BQ41" s="85"/>
+      <c r="BR41" s="85"/>
+      <c r="BS41" s="85"/>
+      <c r="BT41" s="85"/>
+      <c r="BU41" s="85"/>
+      <c r="BV41" s="85">
         <v>14</v>
       </c>
-      <c r="BW41" s="77"/>
-      <c r="BX41" s="77"/>
-      <c r="BY41" s="77"/>
-      <c r="BZ41" s="77"/>
-      <c r="CA41" s="77"/>
-      <c r="CB41" s="77"/>
-      <c r="CC41" s="77"/>
-      <c r="CD41" s="77">
+      <c r="BW41" s="85"/>
+      <c r="BX41" s="85"/>
+      <c r="BY41" s="85"/>
+      <c r="BZ41" s="85"/>
+      <c r="CA41" s="85"/>
+      <c r="CB41" s="85"/>
+      <c r="CC41" s="85"/>
+      <c r="CD41" s="85">
         <v>15</v>
       </c>
-      <c r="CE41" s="77"/>
-      <c r="CF41" s="77"/>
-      <c r="CG41" s="77"/>
-      <c r="CH41" s="77"/>
-      <c r="CI41" s="77"/>
-      <c r="CJ41" s="77"/>
-      <c r="CK41" s="77"/>
-    </row>
-    <row r="42" spans="1:89">
-      <c r="B42" s="78" t="s">
+      <c r="CE41" s="85"/>
+      <c r="CF41" s="85"/>
+      <c r="CG41" s="85"/>
+      <c r="CH41" s="85"/>
+      <c r="CI41" s="85"/>
+      <c r="CJ41" s="85"/>
+      <c r="CK41" s="85"/>
+    </row>
+    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B42" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
-      <c r="V42" s="78"/>
-      <c r="W42" s="78"/>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="78"/>
-      <c r="AA42" s="78"/>
-      <c r="AB42" s="78"/>
-      <c r="AC42" s="78"/>
-      <c r="AD42" s="78"/>
-      <c r="AE42" s="78"/>
-      <c r="AF42" s="78"/>
-      <c r="AG42" s="78"/>
-      <c r="AH42" s="78"/>
-      <c r="AI42" s="78"/>
-      <c r="AJ42" s="78"/>
-      <c r="AK42" s="78"/>
-      <c r="AL42" s="78"/>
-      <c r="AM42" s="78"/>
-      <c r="AN42" s="78"/>
-      <c r="AO42" s="78"/>
-      <c r="AP42" s="78"/>
-      <c r="AQ42" s="78"/>
-      <c r="AR42" s="78"/>
-      <c r="AS42" s="78"/>
-      <c r="AT42" s="78"/>
-      <c r="AU42" s="78"/>
-      <c r="AV42" s="78"/>
-      <c r="AW42" s="78"/>
-      <c r="AX42" s="78"/>
-      <c r="AY42" s="78"/>
-      <c r="AZ42" s="78"/>
-      <c r="BA42" s="78"/>
-      <c r="BB42" s="78"/>
-      <c r="BC42" s="78"/>
-      <c r="BD42" s="78"/>
-      <c r="BE42" s="78"/>
-      <c r="BF42" s="78"/>
-      <c r="BG42" s="78"/>
-      <c r="BH42" s="78"/>
-      <c r="BI42" s="78"/>
-      <c r="BJ42" s="78"/>
-      <c r="BK42" s="78"/>
-      <c r="BL42" s="78"/>
-      <c r="BM42" s="78"/>
-      <c r="BN42" s="78"/>
-      <c r="BO42" s="78"/>
-      <c r="BP42" s="78"/>
-      <c r="BQ42" s="78"/>
-      <c r="BR42" s="78"/>
-      <c r="BS42" s="78"/>
-      <c r="BT42" s="78"/>
-      <c r="BU42" s="78"/>
-      <c r="BV42" s="78"/>
-      <c r="BW42" s="78"/>
-      <c r="BX42" s="78"/>
-      <c r="BY42" s="78"/>
-      <c r="BZ42" s="78"/>
-      <c r="CA42" s="78"/>
-      <c r="CB42" s="78"/>
-      <c r="CC42" s="78"/>
-      <c r="CD42" s="78"/>
-      <c r="CE42" s="78"/>
-      <c r="CF42" s="78"/>
-      <c r="CG42" s="78"/>
-      <c r="CH42" s="78"/>
-      <c r="CI42" s="78"/>
-      <c r="CJ42" s="78"/>
-      <c r="CK42" s="78"/>
-    </row>
-    <row r="43" spans="1:89">
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="78"/>
-      <c r="T43" s="78"/>
-      <c r="U43" s="78"/>
-      <c r="V43" s="78"/>
-      <c r="W43" s="78"/>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="78"/>
-      <c r="Z43" s="78"/>
-      <c r="AA43" s="78"/>
-      <c r="AB43" s="78"/>
-      <c r="AC43" s="78"/>
-      <c r="AD43" s="78"/>
-      <c r="AE43" s="78"/>
-      <c r="AF43" s="78"/>
-      <c r="AG43" s="78"/>
-      <c r="AH43" s="78"/>
-      <c r="AI43" s="78"/>
-      <c r="AJ43" s="78"/>
-      <c r="AK43" s="78"/>
-      <c r="AL43" s="78"/>
-      <c r="AM43" s="78"/>
-      <c r="AN43" s="78"/>
-      <c r="AO43" s="78"/>
-      <c r="AP43" s="78"/>
-      <c r="AQ43" s="78"/>
-      <c r="AR43" s="78"/>
-      <c r="AS43" s="78"/>
-      <c r="AT43" s="78"/>
-      <c r="AU43" s="78"/>
-      <c r="AV43" s="78"/>
-      <c r="AW43" s="78"/>
-      <c r="AX43" s="78"/>
-      <c r="AY43" s="78"/>
-      <c r="AZ43" s="78"/>
-      <c r="BA43" s="78"/>
-      <c r="BB43" s="78"/>
-      <c r="BC43" s="78"/>
-      <c r="BD43" s="78"/>
-      <c r="BE43" s="78"/>
-      <c r="BF43" s="78"/>
-      <c r="BG43" s="78"/>
-      <c r="BH43" s="78"/>
-      <c r="BI43" s="78"/>
-      <c r="BJ43" s="78"/>
-      <c r="BK43" s="78"/>
-      <c r="BL43" s="78"/>
-      <c r="BM43" s="78"/>
-      <c r="BN43" s="78"/>
-      <c r="BO43" s="78"/>
-      <c r="BP43" s="78"/>
-      <c r="BQ43" s="78"/>
-      <c r="BR43" s="78"/>
-      <c r="BS43" s="78"/>
-      <c r="BT43" s="78"/>
-      <c r="BU43" s="78"/>
-      <c r="BV43" s="78"/>
-      <c r="BW43" s="78"/>
-      <c r="BX43" s="78"/>
-      <c r="BY43" s="78"/>
-      <c r="BZ43" s="78"/>
-      <c r="CA43" s="78"/>
-      <c r="CB43" s="78"/>
-      <c r="CC43" s="78"/>
-      <c r="CD43" s="78"/>
-      <c r="CE43" s="78"/>
-      <c r="CF43" s="78"/>
-      <c r="CG43" s="78"/>
-      <c r="CH43" s="78"/>
-      <c r="CI43" s="78"/>
-      <c r="CJ43" s="78"/>
-      <c r="CK43" s="78"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="86"/>
+      <c r="T42" s="86"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="86"/>
+      <c r="X42" s="86"/>
+      <c r="Y42" s="86"/>
+      <c r="Z42" s="86"/>
+      <c r="AA42" s="86"/>
+      <c r="AB42" s="86"/>
+      <c r="AC42" s="86"/>
+      <c r="AD42" s="86"/>
+      <c r="AE42" s="86"/>
+      <c r="AF42" s="86"/>
+      <c r="AG42" s="86"/>
+      <c r="AH42" s="86"/>
+      <c r="AI42" s="86"/>
+      <c r="AJ42" s="86"/>
+      <c r="AK42" s="86"/>
+      <c r="AL42" s="86"/>
+      <c r="AM42" s="86"/>
+      <c r="AN42" s="86"/>
+      <c r="AO42" s="86"/>
+      <c r="AP42" s="86"/>
+      <c r="AQ42" s="86"/>
+      <c r="AR42" s="86"/>
+      <c r="AS42" s="86"/>
+      <c r="AT42" s="86"/>
+      <c r="AU42" s="86"/>
+      <c r="AV42" s="86"/>
+      <c r="AW42" s="86"/>
+      <c r="AX42" s="86"/>
+      <c r="AY42" s="86"/>
+      <c r="AZ42" s="86"/>
+      <c r="BA42" s="86"/>
+      <c r="BB42" s="86"/>
+      <c r="BC42" s="86"/>
+      <c r="BD42" s="86"/>
+      <c r="BE42" s="86"/>
+      <c r="BF42" s="86"/>
+      <c r="BG42" s="86"/>
+      <c r="BH42" s="86"/>
+      <c r="BI42" s="86"/>
+      <c r="BJ42" s="86"/>
+      <c r="BK42" s="86"/>
+      <c r="BL42" s="86"/>
+      <c r="BM42" s="86"/>
+      <c r="BN42" s="86"/>
+      <c r="BO42" s="86"/>
+      <c r="BP42" s="86"/>
+      <c r="BQ42" s="86"/>
+      <c r="BR42" s="86"/>
+      <c r="BS42" s="86"/>
+      <c r="BT42" s="86"/>
+      <c r="BU42" s="86"/>
+      <c r="BV42" s="86"/>
+      <c r="BW42" s="86"/>
+      <c r="BX42" s="86"/>
+      <c r="BY42" s="86"/>
+      <c r="BZ42" s="86"/>
+      <c r="CA42" s="86"/>
+      <c r="CB42" s="86"/>
+      <c r="CC42" s="86"/>
+      <c r="CD42" s="86"/>
+      <c r="CE42" s="86"/>
+      <c r="CF42" s="86"/>
+      <c r="CG42" s="86"/>
+      <c r="CH42" s="86"/>
+      <c r="CI42" s="86"/>
+      <c r="CJ42" s="86"/>
+      <c r="CK42" s="86"/>
+    </row>
+    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="86"/>
+      <c r="X43" s="86"/>
+      <c r="Y43" s="86"/>
+      <c r="Z43" s="86"/>
+      <c r="AA43" s="86"/>
+      <c r="AB43" s="86"/>
+      <c r="AC43" s="86"/>
+      <c r="AD43" s="86"/>
+      <c r="AE43" s="86"/>
+      <c r="AF43" s="86"/>
+      <c r="AG43" s="86"/>
+      <c r="AH43" s="86"/>
+      <c r="AI43" s="86"/>
+      <c r="AJ43" s="86"/>
+      <c r="AK43" s="86"/>
+      <c r="AL43" s="86"/>
+      <c r="AM43" s="86"/>
+      <c r="AN43" s="86"/>
+      <c r="AO43" s="86"/>
+      <c r="AP43" s="86"/>
+      <c r="AQ43" s="86"/>
+      <c r="AR43" s="86"/>
+      <c r="AS43" s="86"/>
+      <c r="AT43" s="86"/>
+      <c r="AU43" s="86"/>
+      <c r="AV43" s="86"/>
+      <c r="AW43" s="86"/>
+      <c r="AX43" s="86"/>
+      <c r="AY43" s="86"/>
+      <c r="AZ43" s="86"/>
+      <c r="BA43" s="86"/>
+      <c r="BB43" s="86"/>
+      <c r="BC43" s="86"/>
+      <c r="BD43" s="86"/>
+      <c r="BE43" s="86"/>
+      <c r="BF43" s="86"/>
+      <c r="BG43" s="86"/>
+      <c r="BH43" s="86"/>
+      <c r="BI43" s="86"/>
+      <c r="BJ43" s="86"/>
+      <c r="BK43" s="86"/>
+      <c r="BL43" s="86"/>
+      <c r="BM43" s="86"/>
+      <c r="BN43" s="86"/>
+      <c r="BO43" s="86"/>
+      <c r="BP43" s="86"/>
+      <c r="BQ43" s="86"/>
+      <c r="BR43" s="86"/>
+      <c r="BS43" s="86"/>
+      <c r="BT43" s="86"/>
+      <c r="BU43" s="86"/>
+      <c r="BV43" s="86"/>
+      <c r="BW43" s="86"/>
+      <c r="BX43" s="86"/>
+      <c r="BY43" s="86"/>
+      <c r="BZ43" s="86"/>
+      <c r="CA43" s="86"/>
+      <c r="CB43" s="86"/>
+      <c r="CC43" s="86"/>
+      <c r="CD43" s="86"/>
+      <c r="CE43" s="86"/>
+      <c r="CF43" s="86"/>
+      <c r="CG43" s="86"/>
+      <c r="CH43" s="86"/>
+      <c r="CI43" s="86"/>
+      <c r="CJ43" s="86"/>
+      <c r="CK43" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -4714,7 +4949,7 @@
       <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -4725,18 +4960,18 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -4759,260 +4994,260 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87">
         <v>1</v>
       </c>
-      <c r="C3" s="79">
-        <v>2</v>
-      </c>
-      <c r="D3" s="79">
-        <v>3</v>
-      </c>
-      <c r="E3" s="79">
-        <v>4</v>
-      </c>
-      <c r="F3" s="79">
-        <v>5</v>
-      </c>
-      <c r="G3" s="79">
+      <c r="C3" s="87">
+        <v>2</v>
+      </c>
+      <c r="D3" s="87">
+        <v>3</v>
+      </c>
+      <c r="E3" s="87">
+        <v>4</v>
+      </c>
+      <c r="F3" s="87">
+        <v>5</v>
+      </c>
+      <c r="G3" s="87">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="91" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="87">
         <v>12</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="87">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-    </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="79">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+    </row>
+    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="87">
         <v>14</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="87">
         <v>15</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="87">
         <v>16</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="87">
         <v>17</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="87">
         <v>18</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="87">
         <v>19</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="87">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-    </row>
-    <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="91" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="99" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="41">
         <v>24</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="79">
+      <c r="F15" s="87">
         <v>26</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G15" s="87">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="41"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-    </row>
-    <row r="18" spans="1:7" ht="15">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="79">
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="87">
         <v>28</v>
       </c>
-      <c r="B19" s="79">
+      <c r="B19" s="87">
         <v>29</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="87">
         <v>30</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="77" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -5035,247 +5270,247 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87">
         <v>1</v>
       </c>
-      <c r="E28" s="79">
-        <v>2</v>
-      </c>
-      <c r="F28" s="79">
-        <v>3</v>
-      </c>
-      <c r="G28" s="79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="91">
-        <v>5</v>
-      </c>
-      <c r="B32" s="91">
+      <c r="E28" s="87">
+        <v>2</v>
+      </c>
+      <c r="F28" s="87">
+        <v>3</v>
+      </c>
+      <c r="G28" s="87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="99">
+        <v>5</v>
+      </c>
+      <c r="B32" s="99">
         <v>6</v>
       </c>
-      <c r="C32" s="91">
+      <c r="C32" s="99">
         <v>7</v>
       </c>
-      <c r="D32" s="91">
+      <c r="D32" s="99">
         <v>8</v>
       </c>
-      <c r="E32" s="91">
+      <c r="E32" s="99">
         <v>9</v>
       </c>
-      <c r="F32" s="91">
+      <c r="F32" s="99">
         <v>10</v>
       </c>
-      <c r="G32" s="91">
+      <c r="G32" s="99">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="79">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="87">
         <v>12</v>
       </c>
-      <c r="B36" s="79">
+      <c r="B36" s="87">
         <v>13</v>
       </c>
-      <c r="C36" s="79">
+      <c r="C36" s="87">
         <v>14</v>
       </c>
-      <c r="D36" s="79">
+      <c r="D36" s="87">
         <v>15</v>
       </c>
-      <c r="E36" s="79">
+      <c r="E36" s="87">
         <v>16</v>
       </c>
-      <c r="F36" s="79">
+      <c r="F36" s="87">
         <v>17</v>
       </c>
-      <c r="G36" s="79">
+      <c r="G36" s="87">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="91">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="87"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="99">
         <v>19</v>
       </c>
-      <c r="B40" s="91">
+      <c r="B40" s="99">
         <v>20</v>
       </c>
-      <c r="C40" s="91">
+      <c r="C40" s="99">
         <v>21</v>
       </c>
-      <c r="D40" s="91">
+      <c r="D40" s="99">
         <v>22</v>
       </c>
-      <c r="E40" s="91">
+      <c r="E40" s="99">
         <v>23</v>
       </c>
-      <c r="F40" s="91">
+      <c r="F40" s="99">
         <v>24</v>
       </c>
-      <c r="G40" s="91">
+      <c r="G40" s="99">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="79">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="87"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="87"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="87">
         <v>26</v>
       </c>
-      <c r="B44" s="79">
+      <c r="B44" s="87">
         <v>27</v>
       </c>
-      <c r="C44" s="79">
+      <c r="C44" s="87">
         <v>28</v>
       </c>
-      <c r="D44" s="79">
+      <c r="D44" s="87">
         <v>29</v>
       </c>
-      <c r="E44" s="79">
+      <c r="E44" s="87">
         <v>30</v>
       </c>
-      <c r="F44" s="79">
+      <c r="F44" s="87">
         <v>31</v>
       </c>
-      <c r="G44" s="79"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
+      <c r="G44" s="87"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="71">
@@ -5328,19 +5563,12 @@
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="C19:C22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="G15:G18"/>
@@ -5350,6 +5578,13 @@
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="A15:A18"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Iteración 0/Estimaciones y calendario.xlsx
+++ b/Iteración 0/Estimaciones y calendario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25915"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E445FD9C-0645-4C27-97C5-9E55AF25D980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90EFF3B8-B64D-4B65-92A0-351F368E71D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2565" yWindow="1140" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{82B16C0C-8046-4CC9-B5E3-538EFAD428B8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="97">
   <si>
     <t>Servidor</t>
   </si>
@@ -202,6 +202,15 @@
     <t>It.6, It.7 e It.8</t>
   </si>
   <si>
+    <t>Trajadores</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Salario</t>
+  </si>
+  <si>
     <t>Carlos y Mohamed</t>
   </si>
   <si>
@@ -211,19 +220,41 @@
     <t>Total Horas</t>
   </si>
   <si>
+    <t>Rosa</t>
+  </si>
+  <si>
     <t>Alejandro y Diego</t>
   </si>
   <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
     <t>Tiempo</t>
   </si>
   <si>
+    <t>Total Dias
+16</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
     <t>Coste</t>
   </si>
   <si>
-    <t>Total Dias</t>
+    <t>Diego</t>
   </si>
   <si>
     <t>Días</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
   <si>
     <t>NOVIEMBRE</t>
@@ -286,45 +317,43 @@
 Fin It.1</t>
   </si>
   <si>
-    <t>25
-It.3</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Trajadores</t>
-  </si>
-  <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Salario</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>24
+It. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25
+</t>
+  </si>
+  <si>
+    <t>29
+Fin It.2</t>
+  </si>
+  <si>
+    <t>30
+It. 3, 4 ,5</t>
+  </si>
+  <si>
+    <t>5
+Fin It. 3,4,5</t>
+  </si>
+  <si>
+    <t>6
+It.6 It.7 It.8</t>
+  </si>
+  <si>
+    <t>9
+It. 7,8 fin</t>
+  </si>
+  <si>
+    <t>12
+It. 6 fin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,8 +435,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,8 +503,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -850,17 +891,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -960,17 +990,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,14 +1019,137 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1021,9 +1185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1041,11 +1202,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1058,146 +1214,220 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,7 +1446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1518,7 +1748,7 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
@@ -1526,13 +1756,13 @@
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:9" ht="17.25">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1560,7 +1790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="17.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1589,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="17.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1618,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1647,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1676,7 +1906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="17.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1705,7 +1935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1734,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1763,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1792,13 +2022,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:9" ht="17.25">
+      <c r="A13" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
@@ -1826,7 +2056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1855,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="17.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1884,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="17.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1913,16 +2143,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="17.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:9" ht="17.25">
+      <c r="A19" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
@@ -1950,7 +2180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="17.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1979,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="17.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2008,7 +2238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="17.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2037,7 +2267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="17.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -2066,16 +2296,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="17.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="17.25">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="17.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2104,7 +2334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="17.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2133,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="17.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2162,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="17.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2191,12 +2421,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="17.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2225,7 +2455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="17.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2259,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="17.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2293,7 +2523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="17.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2327,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="17.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2361,7 +2591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="17.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2395,7 +2625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="17.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -2429,7 +2659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="17.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -2463,7 +2693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="17.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2497,7 +2727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="H43" s="2" t="s">
         <v>30</v>
       </c>
@@ -2506,281 +2736,281 @@
         <v>409</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="34" t="s">
+      <c r="C46" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="31">
-        <v>2</v>
-      </c>
-      <c r="C47" s="33">
+      <c r="B47" s="28">
+        <v>2</v>
+      </c>
+      <c r="C47" s="30">
         <v>1</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="31">
         <f>E35</f>
         <v>3</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="31">
         <f>F35</f>
         <v>5</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="31">
         <f>G35</f>
         <v>9</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="31">
         <f>H35</f>
         <v>24</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="31">
         <f>I35</f>
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="31">
-        <v>4</v>
-      </c>
-      <c r="C48" s="33">
-        <v>2</v>
-      </c>
-      <c r="D48" s="34">
+      <c r="B48" s="28">
+        <v>4</v>
+      </c>
+      <c r="C48" s="30">
+        <v>2</v>
+      </c>
+      <c r="D48" s="31">
         <f>E37</f>
         <v>4</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="31">
         <f>F37</f>
         <v>4</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="31">
         <f>G37</f>
         <v>13</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="31">
         <f>H37</f>
         <v>26</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H48" s="31">
         <f>I37</f>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="31">
-        <v>3</v>
-      </c>
-      <c r="C49" s="33">
-        <v>3</v>
-      </c>
-      <c r="D49" s="34">
+      <c r="B49" s="28">
+        <v>3</v>
+      </c>
+      <c r="C49" s="30">
+        <v>3</v>
+      </c>
+      <c r="D49" s="31">
         <f>E36</f>
         <v>3</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="31">
         <f>F36</f>
         <v>6</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="31">
         <f>G36</f>
         <v>7</v>
       </c>
-      <c r="G49" s="34">
+      <c r="G49" s="31">
         <f>H36</f>
         <v>22</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="31">
         <f>I36</f>
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="31">
-        <v>5</v>
-      </c>
-      <c r="C50" s="33">
-        <v>3</v>
-      </c>
-      <c r="D50" s="31">
+      <c r="B50" s="28">
+        <v>5</v>
+      </c>
+      <c r="C50" s="30">
+        <v>3</v>
+      </c>
+      <c r="D50" s="28">
         <f>E38</f>
         <v>4</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="28">
         <f>F38</f>
         <v>5</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="28">
         <f>G38</f>
         <v>10</v>
       </c>
-      <c r="G50" s="31">
+      <c r="G50" s="28">
         <f>H38</f>
         <v>28</v>
       </c>
-      <c r="H50" s="31">
+      <c r="H50" s="28">
         <f>I38</f>
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="28">
         <v>7</v>
       </c>
-      <c r="C51" s="33">
-        <v>3</v>
-      </c>
-      <c r="D51" s="31">
+      <c r="C51" s="30">
+        <v>3</v>
+      </c>
+      <c r="D51" s="28">
         <f>E40</f>
         <v>4</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="28">
         <f>F40</f>
         <v>4</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="28">
         <f>G40</f>
         <v>11</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="28">
         <f>H40</f>
         <v>26</v>
       </c>
-      <c r="H51" s="31">
+      <c r="H51" s="28">
         <f>I40</f>
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="28">
         <v>1</v>
       </c>
-      <c r="C52" s="33">
-        <v>4</v>
-      </c>
-      <c r="D52" s="31">
+      <c r="C52" s="30">
+        <v>4</v>
+      </c>
+      <c r="D52" s="28">
         <f>E34</f>
         <v>4</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="28">
         <f>F34</f>
         <v>8</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="28">
         <f>G34</f>
         <v>17</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="28">
         <f>H34</f>
         <v>42</v>
       </c>
-      <c r="H52" s="31">
+      <c r="H52" s="28">
         <f>I34</f>
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="28">
         <v>6</v>
       </c>
-      <c r="C53" s="33">
-        <v>4</v>
-      </c>
-      <c r="D53" s="31">
+      <c r="C53" s="30">
+        <v>4</v>
+      </c>
+      <c r="D53" s="28">
         <f>E39</f>
         <v>4</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="28">
         <f>F39</f>
         <v>6</v>
       </c>
-      <c r="F53" s="31">
+      <c r="F53" s="28">
         <f>G39</f>
         <v>13</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G53" s="28">
         <f>H39</f>
         <v>24</v>
       </c>
-      <c r="H53" s="31">
+      <c r="H53" s="28">
         <f>I39</f>
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="28">
         <v>8</v>
       </c>
-      <c r="C54" s="33">
-        <v>4</v>
-      </c>
-      <c r="D54" s="31">
+      <c r="C54" s="30">
+        <v>4</v>
+      </c>
+      <c r="D54" s="28">
         <f>E41</f>
         <v>2</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="28">
         <f>F41</f>
         <v>5</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="28">
         <f>G41</f>
         <v>10</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="28">
         <f>H41</f>
         <v>24</v>
       </c>
-      <c r="H54" s="31">
+      <c r="H54" s="28">
         <f>I41</f>
         <v>4</v>
       </c>
@@ -2796,19 +3026,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEAEB5C-F7DD-49B8-A4DF-0E3F9D983495}">
   <dimension ref="A1:CK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="AW26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BF47" sqref="BF47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="28" max="28" width="11.85546875" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:65">
       <c r="O1" t="s">
         <v>42</v>
       </c>
@@ -2840,7 +3071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:65">
       <c r="O2" t="s">
         <v>43</v>
       </c>
@@ -2872,7 +3103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:65">
       <c r="O3" t="s">
         <v>44</v>
       </c>
@@ -2904,64 +3135,67 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:65">
       <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:65">
       <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="95" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="95" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="95" t="s">
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="98" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="AB5" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC5" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD5" s="50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="AB5" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="AC5" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+    </row>
+    <row r="6" spans="2:65">
+      <c r="B6" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="52"/>
       <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>7</v>
@@ -2976,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>7</v>
@@ -2991,7 +3225,7 @@
         <v>5</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>7</v>
@@ -2999,14 +3233,14 @@
       <c r="R6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="33" t="s">
         <v>9</v>
       </c>
       <c r="T6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V6" s="11" t="s">
         <v>7</v>
@@ -3014,26 +3248,29 @@
       <c r="W6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="36" t="s">
+      <c r="X6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB6" s="51" t="s">
-        <v>82</v>
+      <c r="Y6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="AC6" s="23">
         <v>77</v>
       </c>
-      <c r="AD6" s="52">
+      <c r="AD6" s="46">
         <f>(((E7+O7+P7+T7+U7+F7+J7+K7)*50)/2)+(((G7+L7+Q7+V7)*40)/2)+(((H7+M7+R7+W7)*30)/2)+(((I7+N7+S7+X7)*25)/2)</f>
         <v>2605</v>
       </c>
-    </row>
-    <row r="7" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
-        <v>57</v>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+    </row>
+    <row r="7" spans="2:65">
+      <c r="B7" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>49</v>
@@ -3057,23 +3294,23 @@
         <v>26</v>
       </c>
       <c r="N7" s="17"/>
-      <c r="O7" s="37">
+      <c r="O7" s="34">
         <f>'Estimacion de tiempo'!D49</f>
         <v>3</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="34">
         <f>'Estimacion de tiempo'!E50</f>
         <v>5</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="34">
         <f>'Estimacion de tiempo'!F49</f>
         <v>7</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="34">
         <f>'Estimacion de tiempo'!G51</f>
         <v>26</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="34">
         <f>'Estimacion de tiempo'!H49</f>
         <v>4</v>
       </c>
@@ -3097,24 +3334,27 @@
         <f>'Estimacion de tiempo'!H54</f>
         <v>4</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Y7" s="32">
         <f>SUM(E7:X7)</f>
         <v>153</v>
       </c>
-      <c r="AB7" s="51" t="s">
-        <v>83</v>
+      <c r="AB7" s="45" t="s">
+        <v>62</v>
       </c>
       <c r="AC7" s="23">
         <v>76</v>
       </c>
-      <c r="AD7" s="52">
+      <c r="AD7" s="46">
         <f>(((E7+O7+P7+T7+U7+F7+J7+K7)*50)/2)+(((G7+L7+Q7+V7)*40)/2)+(((H7+M7+R7+W7)*30)/2)+(((I7+N7+S7+X7)*25)/2)</f>
         <v>2605</v>
       </c>
-    </row>
-    <row r="8" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+    </row>
+    <row r="8" spans="2:65">
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20">
@@ -3178,24 +3418,27 @@
         <f>'Estimacion de tiempo'!H52</f>
         <v>3</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Y8" s="32">
         <f>SUM(E8:X8)</f>
         <v>128</v>
       </c>
-      <c r="AB8" s="51" t="s">
-        <v>84</v>
+      <c r="AB8" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="AC8" s="23">
         <v>64</v>
       </c>
-      <c r="AD8" s="52">
+      <c r="AD8" s="46">
         <f>(((E8+O8+P8+T8+U8+F8+J8+K8)*50)/2)+(((G8+L8+Q8+V8)*40)/2)+(((H8+M8+R8+W8)*30)/2)+(((I8+N8+S8+X8)*25)/2)</f>
         <v>2267.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="94"/>
+    </row>
+    <row r="9" spans="2:65">
       <c r="D9" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
@@ -3236,178 +3479,194 @@
         <f>'Estimacion de tiempo'!H51</f>
         <v>4</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="123">
         <f>'Estimacion de tiempo'!D54</f>
         <v>2</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="123">
         <f>'Estimacion de tiempo'!E52</f>
         <v>8</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="123">
         <f>'Estimacion de tiempo'!F53</f>
         <v>13</v>
       </c>
-      <c r="W9" s="19">
+      <c r="W9" s="123">
         <f>'Estimacion de tiempo'!G53</f>
         <v>24</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="123">
         <f>'Estimacion de tiempo'!H53</f>
         <v>5</v>
       </c>
-      <c r="Z9" s="35">
+      <c r="Y9" s="111">
         <f>SUM(E9:X9)</f>
         <v>128</v>
       </c>
-      <c r="AB9" s="51" t="s">
-        <v>85</v>
+      <c r="AB9" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="AC9" s="23">
         <v>64</v>
       </c>
-      <c r="AD9" s="52">
+      <c r="AD9" s="46">
         <f>(((E8+O8+P8+T8+U8+F8+J8+K8)*50)/2)+(((G8+L8+Q8+V8)*40)/2)+(((H8+M8+R8+W8)*30)/2)+(((I8+N8+S8+X8)*25)/2)</f>
         <v>2267.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+    </row>
+    <row r="10" spans="2:65">
       <c r="D10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="92">
+        <v>65</v>
+      </c>
+      <c r="E10" s="53">
         <f>SUM(E7:I9)</f>
         <v>45</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="93">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54">
         <f>SUM(J7:N9)</f>
         <v>51</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="90">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="55">
         <f>SUM(O7:S9)</f>
         <v>142</v>
       </c>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="93">
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="112">
         <f>SUM(T7:X9)</f>
         <v>171</v>
       </c>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="94"/>
-      <c r="AB10" s="51" t="s">
-        <v>86</v>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB10" s="45" t="s">
+        <v>67</v>
       </c>
       <c r="AC10" s="23">
         <v>64</v>
       </c>
-      <c r="AD10" s="52">
+      <c r="AD10" s="46">
         <f>(((E9+O9+P9+T9+U9+F9+J9+K9)*50)/2)+(((G9+L9+Q9+V9)*40)/2)+(((H9+M9+R9+W9)*30)/2)+(((I9+N9+S9+X9)*25)/2)</f>
         <v>2342.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+    </row>
+    <row r="11" spans="2:65">
       <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB11" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC11" s="54">
+        <v>68</v>
+      </c>
+      <c r="E11" s="52">
+        <f>(E7+F7+F8+F9+E9+E8)*50+(G7+G8+G9)*40+(H7+H8+H9)*30+(I7+I8+I9)*25</f>
+        <v>1580</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="95">
+        <f>(J7+J8+J9+K9+K8+K7)*50+(L9+L8+L7)*40+(M7+M8+M9)*30+(N7+N8+N9)*25</f>
+        <v>1800</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="55">
+        <f>(O7+O8+O9+P9+P8+P7)*50+(Q7+Q8+Q9)*40+(R7+R8+R9)*30+(S7+S8+S9)*25</f>
+        <v>5000</v>
+      </c>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="115">
+        <f>(T7+T8+T9+U9+U8+U7)*50+(V7+V8+V9)*40+(W7+W8+W9)*30+(X7+X8+X9)*25</f>
+        <v>6050</v>
+      </c>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="121"/>
+      <c r="AB11" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC11" s="92">
         <v>64</v>
       </c>
-      <c r="AD11" s="55">
+      <c r="AD11" s="93">
         <f>(((E9+O9+P9+T9+U9+F9+J9+K9)*50)/2)+(((G9+L9+Q9+V9)*40)/2)+(((H9+M9+R9+W9)*30)/2)+(((I9+N9+S9+X9)*25)/2)</f>
         <v>2342.5</v>
       </c>
     </row>
-    <row r="12" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:65">
       <c r="D12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="89">
+        <v>70</v>
+      </c>
+      <c r="E12" s="56">
         <f>ROUNDUP(SUM(ROUNDUP(E7/2,0)+ROUNDUP(F8/2,0)+ROUNDUP(G9/2,0)+ROUNDUP(H7/2,0)+ROUNDUP(I8/2,0))/8,0)</f>
         <v>3</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89">
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56">
         <f>ROUNDUP(SUM(ROUNDUP(J9/2,0)+ROUNDUP(K8/2,0)+ROUNDUP(L9/2,0)+ROUNDUP(M7/2,0)+ROUNDUP(N8/2,0))/8,0)</f>
         <v>4</v>
       </c>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89">
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56">
         <f>ROUNDUP(SUM(MAX(ROUNDUP(O9/2,0),ROUNDUP(O7/2,0),ROUNDUP(O8/2,0))+MAX(ROUNDUP(P7/2,0),ROUNDUP(P8/2,0),ROUNDUP(P9/2,0))+MAX(ROUNDUP(Q7/2,0),ROUNDUP(Q8/2,0),ROUNDUP(Q9/2,0))+MAX(ROUNDUP(R7/2,0),ROUNDUP(R8/2,0),ROUNDUP(R9/2,0))+MAX(ROUNDUP(S7/2,0),ROUNDUP(S8/2,0),ROUNDUP(S9/2,0)))/8,0)</f>
         <v>4</v>
       </c>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89">
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="117">
         <f>ROUNDUP(SUM(MAX(ROUNDUP(T9/2,0),ROUNDUP(T7/2,0),ROUNDUP(T8/2,0))+MAX(ROUNDUP(U7/2,0),ROUNDUP(U8/2,0),ROUNDUP(U9/2,0))+MAX(ROUNDUP(V7/2,0),ROUNDUP(V8/2,0),ROUNDUP(V9/2,0))+MAX(ROUNDUP(W7/2,0),ROUNDUP(W8/2,0),ROUNDUP(W9/2,0))+MAX(ROUNDUP(X7/2,0),ROUNDUP(X8/2,0),ROUNDUP(X9/2,0)))/8,0)</f>
         <v>5</v>
       </c>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12">
-        <f>SUM(E12:X12)</f>
-        <v>16</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD12">
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="122"/>
+      <c r="AC12" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD12" s="91">
         <f>AD6+AD7+AD8+AD9+AD10+AD11</f>
         <v>14430</v>
       </c>
     </row>
-    <row r="14" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="U14" s="38"/>
-    </row>
-    <row r="16" spans="2:65" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:65">
+      <c r="U14" s="35"/>
+    </row>
+    <row r="16" spans="2:65" s="25" customFormat="1">
       <c r="B16" s="25">
         <v>1</v>
       </c>
@@ -3601,122 +3860,124 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" ht="14.45" customHeight="1">
       <c r="A17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="84" t="s">
+      <c r="B17" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="82" t="s">
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="64" t="s">
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="65" t="s">
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="Y17" s="65"/>
+      <c r="Y17" s="66"/>
       <c r="AG17" s="24"/>
       <c r="AO17" s="24"/>
       <c r="AW17" s="24"/>
       <c r="BE17" s="24"/>
       <c r="BM17" s="24"/>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89">
       <c r="A18" s="25" t="s">
         <v>35</v>
       </c>
       <c r="Q18" s="24"/>
-      <c r="Z18" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="61" t="s">
+      <c r="Z18" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="78" t="s">
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="79"/>
-      <c r="AP18" s="79"/>
-      <c r="AQ18" s="79"/>
-      <c r="AR18" s="79"/>
-      <c r="AS18" s="79"/>
-      <c r="AT18" s="79"/>
-      <c r="AU18" s="79"/>
-      <c r="AV18" s="79"/>
-      <c r="AW18" s="79"/>
-      <c r="AX18" s="58" t="s">
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AY18" s="65"/>
+      <c r="AY18" s="96"/>
+      <c r="AZ18" s="97"/>
+      <c r="BA18" s="97"/>
       <c r="BE18" s="24"/>
       <c r="BM18" s="24"/>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89">
       <c r="A19" s="25" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="Y19" s="24"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="30"/>
-      <c r="BA19" s="30"/>
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="27"/>
       <c r="BE19" s="24"/>
-      <c r="BF19" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG19" s="57"/>
-      <c r="BH19" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="59"/>
-      <c r="BK19" s="63" t="s">
+      <c r="BF19" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG19" s="74"/>
+      <c r="BH19" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI19" s="66"/>
+      <c r="BJ19" s="77"/>
+      <c r="BK19" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="BL19" s="64"/>
-      <c r="BM19" s="64"/>
-    </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+    </row>
+    <row r="20" spans="1:89">
       <c r="A20" s="25" t="s">
         <v>37</v>
       </c>
@@ -3727,22 +3988,22 @@
       <c r="AO20" s="24"/>
       <c r="AW20" s="24"/>
       <c r="BE20" s="24"/>
-      <c r="BF20" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG20" s="81"/>
-      <c r="BH20" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI20" s="71"/>
-      <c r="BJ20" s="75"/>
-      <c r="BK20" s="66" t="s">
+      <c r="BF20" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG20" s="64"/>
+      <c r="BH20" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI20" s="79"/>
+      <c r="BJ20" s="80"/>
+      <c r="BK20" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="BL20" s="67"/>
-      <c r="BM20" s="67"/>
-    </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="BL20" s="61"/>
+      <c r="BM20" s="61"/>
+    </row>
+    <row r="21" spans="1:89">
       <c r="A21" s="25" t="s">
         <v>38</v>
       </c>
@@ -3753,21 +4014,21 @@
       <c r="AO21" s="24"/>
       <c r="AW21" s="24"/>
       <c r="BE21" s="24"/>
-      <c r="BF21" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI21" s="62"/>
-      <c r="BK21" s="76" t="s">
+      <c r="BF21" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG21" s="62"/>
+      <c r="BH21" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI21" s="82"/>
+      <c r="BK21" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="BL21" s="77"/>
-      <c r="BM21" s="77"/>
-    </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="BL21" s="85"/>
+      <c r="BM21" s="85"/>
+    </row>
+    <row r="22" spans="1:89">
       <c r="A22" s="25" t="s">
         <v>39</v>
       </c>
@@ -3780,7 +4041,7 @@
       <c r="BE22" s="24"/>
       <c r="BM22" s="24"/>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89">
       <c r="A23" s="25" t="s">
         <v>40</v>
       </c>
@@ -3793,7 +4054,7 @@
       <c r="BE23" s="24"/>
       <c r="BM23" s="24"/>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89">
       <c r="A24" s="25" t="s">
         <v>41</v>
       </c>
@@ -3806,223 +4067,223 @@
       <c r="BE24" s="24"/>
       <c r="BM24" s="24"/>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B25" s="85">
+    <row r="25" spans="1:89">
+      <c r="B25" s="52">
         <v>21</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85">
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52">
         <v>22</v>
       </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85">
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52">
         <v>23</v>
       </c>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85">
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52">
         <v>24</v>
       </c>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="85"/>
-      <c r="AH25" s="85">
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52">
         <v>25</v>
       </c>
-      <c r="AI25" s="85"/>
-      <c r="AJ25" s="85"/>
-      <c r="AK25" s="85"/>
-      <c r="AL25" s="85"/>
-      <c r="AM25" s="85"/>
-      <c r="AN25" s="85"/>
-      <c r="AO25" s="85"/>
-      <c r="AP25" s="85">
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52">
         <v>28</v>
       </c>
-      <c r="AQ25" s="85"/>
-      <c r="AR25" s="85"/>
-      <c r="AS25" s="85"/>
-      <c r="AT25" s="85"/>
-      <c r="AU25" s="85"/>
-      <c r="AV25" s="85"/>
-      <c r="AW25" s="85"/>
-      <c r="AX25" s="85">
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="52">
         <v>29</v>
       </c>
-      <c r="AY25" s="85"/>
-      <c r="AZ25" s="85"/>
-      <c r="BA25" s="85"/>
-      <c r="BB25" s="85"/>
-      <c r="BC25" s="85"/>
-      <c r="BD25" s="85"/>
-      <c r="BE25" s="85"/>
-      <c r="BF25" s="85">
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
+      <c r="BA25" s="52"/>
+      <c r="BB25" s="52"/>
+      <c r="BC25" s="52"/>
+      <c r="BD25" s="52"/>
+      <c r="BE25" s="52"/>
+      <c r="BF25" s="52">
         <v>30</v>
       </c>
-      <c r="BG25" s="85"/>
-      <c r="BH25" s="85"/>
-      <c r="BI25" s="85"/>
-      <c r="BJ25" s="85"/>
-      <c r="BK25" s="85"/>
-      <c r="BL25" s="85"/>
-      <c r="BM25" s="85"/>
-    </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B26" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="87"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="87"/>
-      <c r="BA26" s="87"/>
-      <c r="BB26" s="87"/>
-      <c r="BC26" s="87"/>
-      <c r="BD26" s="87"/>
-      <c r="BE26" s="87"/>
-      <c r="BF26" s="87"/>
-      <c r="BG26" s="87"/>
-      <c r="BH26" s="87"/>
-      <c r="BI26" s="87"/>
-      <c r="BJ26" s="87"/>
-      <c r="BK26" s="87"/>
-      <c r="BL26" s="87"/>
-      <c r="BM26" s="87"/>
-    </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="87"/>
-      <c r="AL27" s="87"/>
-      <c r="AM27" s="87"/>
-      <c r="AN27" s="87"/>
-      <c r="AO27" s="87"/>
-      <c r="AP27" s="87"/>
-      <c r="AQ27" s="87"/>
-      <c r="AR27" s="87"/>
-      <c r="AS27" s="87"/>
-      <c r="AT27" s="87"/>
-      <c r="AU27" s="87"/>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="87"/>
-      <c r="AX27" s="87"/>
-      <c r="AY27" s="87"/>
-      <c r="AZ27" s="87"/>
-      <c r="BA27" s="87"/>
-      <c r="BB27" s="87"/>
-      <c r="BC27" s="87"/>
-      <c r="BD27" s="87"/>
-      <c r="BE27" s="87"/>
-      <c r="BF27" s="87"/>
-      <c r="BG27" s="87"/>
-      <c r="BH27" s="87"/>
-      <c r="BI27" s="87"/>
-      <c r="BJ27" s="87"/>
-      <c r="BK27" s="87"/>
-      <c r="BL27" s="87"/>
-      <c r="BM27" s="87"/>
-    </row>
-    <row r="32" spans="1:89" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG25" s="52"/>
+      <c r="BH25" s="52"/>
+      <c r="BI25" s="52"/>
+      <c r="BJ25" s="52"/>
+      <c r="BK25" s="52"/>
+      <c r="BL25" s="52"/>
+      <c r="BM25" s="52"/>
+    </row>
+    <row r="26" spans="1:89">
+      <c r="B26" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="59"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="59"/>
+      <c r="AU26" s="59"/>
+      <c r="AV26" s="59"/>
+      <c r="AW26" s="59"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="59"/>
+      <c r="AZ26" s="59"/>
+      <c r="BA26" s="59"/>
+      <c r="BB26" s="59"/>
+      <c r="BC26" s="59"/>
+      <c r="BD26" s="59"/>
+      <c r="BE26" s="59"/>
+      <c r="BF26" s="59"/>
+      <c r="BG26" s="59"/>
+      <c r="BH26" s="59"/>
+      <c r="BI26" s="59"/>
+      <c r="BJ26" s="59"/>
+      <c r="BK26" s="59"/>
+      <c r="BL26" s="59"/>
+      <c r="BM26" s="59"/>
+    </row>
+    <row r="27" spans="1:89">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
+      <c r="AU27" s="59"/>
+      <c r="AV27" s="59"/>
+      <c r="AW27" s="59"/>
+      <c r="AX27" s="59"/>
+      <c r="AY27" s="59"/>
+      <c r="AZ27" s="59"/>
+      <c r="BA27" s="59"/>
+      <c r="BB27" s="59"/>
+      <c r="BC27" s="59"/>
+      <c r="BD27" s="59"/>
+      <c r="BE27" s="59"/>
+      <c r="BF27" s="59"/>
+      <c r="BG27" s="59"/>
+      <c r="BH27" s="59"/>
+      <c r="BI27" s="59"/>
+      <c r="BJ27" s="59"/>
+      <c r="BK27" s="59"/>
+      <c r="BL27" s="59"/>
+      <c r="BM27" s="59"/>
+    </row>
+    <row r="32" spans="1:89" s="25" customFormat="1">
       <c r="B32" s="25">
         <v>1</v>
       </c>
@@ -4288,7 +4549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89">
       <c r="A33" s="25" t="s">
         <v>34</v>
       </c>
@@ -4304,7 +4565,7 @@
       <c r="CC33" s="24"/>
       <c r="CK33" s="24"/>
     </row>
-    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89">
       <c r="A34" s="25" t="s">
         <v>35</v>
       </c>
@@ -4320,32 +4581,32 @@
       <c r="CC34" s="24"/>
       <c r="CK34" s="24"/>
     </row>
-    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:89">
       <c r="A35" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="60" t="s">
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="R35" s="61"/>
+      <c r="R35" s="70"/>
       <c r="Y35" s="24"/>
       <c r="AG35" s="24"/>
       <c r="AO35" s="24"/>
@@ -4356,33 +4617,33 @@
       <c r="CC35" s="24"/>
       <c r="CK35" s="24"/>
     </row>
-    <row r="36" spans="1:89" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" ht="14.45" customHeight="1">
       <c r="A36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="66" t="s">
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="68"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="62"/>
       <c r="Q36" s="24"/>
-      <c r="R36" s="70" t="s">
+      <c r="R36" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="S36" s="71"/>
+      <c r="S36" s="79"/>
       <c r="Y36" s="24"/>
       <c r="AG36" s="24"/>
       <c r="AO36" s="24"/>
@@ -4393,34 +4654,34 @@
       <c r="CC36" s="24"/>
       <c r="CK36" s="24"/>
     </row>
-    <row r="37" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:89">
       <c r="A37" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="69" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="72" t="s">
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="S37" s="65"/>
+      <c r="S37" s="66"/>
       <c r="Y37" s="24"/>
       <c r="AG37" s="24"/>
       <c r="AO37" s="24"/>
@@ -4431,465 +4692,495 @@
       <c r="CC37" s="24"/>
       <c r="CK37" s="24"/>
     </row>
-    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:89">
       <c r="A38" s="25" t="s">
         <v>39</v>
       </c>
       <c r="I38" s="24"/>
       <c r="Q38" s="24"/>
       <c r="Y38" s="24"/>
-      <c r="Z38" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA38" s="57"/>
-      <c r="AB38" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC38" s="61"/>
-      <c r="AD38" s="61"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
-      <c r="AI38" s="27"/>
-      <c r="AJ38" s="27"/>
-      <c r="AK38" s="27"/>
-      <c r="AL38" s="27"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="29"/>
-      <c r="AT38" s="29"/>
-      <c r="AU38" s="29"/>
-      <c r="AV38" s="29"/>
-      <c r="AW38" s="29"/>
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="29"/>
-      <c r="AZ38" s="29"/>
-      <c r="BA38" s="29"/>
-      <c r="BB38" s="29"/>
-      <c r="BC38" s="29"/>
-      <c r="BD38" s="29"/>
-      <c r="BE38" s="29"/>
-      <c r="BF38" s="29"/>
-      <c r="BG38" s="29"/>
-      <c r="BH38" s="29"/>
-      <c r="BI38" s="29"/>
-      <c r="BJ38" s="29"/>
-      <c r="BK38" s="40"/>
-      <c r="BL38" s="29"/>
-      <c r="BM38" s="29"/>
+      <c r="Z38" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="74"/>
+      <c r="AB38" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG38" s="101"/>
+      <c r="AH38" s="101"/>
+      <c r="AI38" s="101"/>
+      <c r="AJ38" s="101"/>
+      <c r="AK38" s="101"/>
+      <c r="AL38" s="101"/>
+      <c r="AM38" s="101"/>
+      <c r="AN38" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO38" s="66"/>
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="66"/>
+      <c r="AR38" s="66"/>
+      <c r="AS38" s="66"/>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="66"/>
+      <c r="AV38" s="66"/>
+      <c r="AW38" s="66"/>
+      <c r="AX38" s="66"/>
+      <c r="AY38" s="66"/>
+      <c r="AZ38" s="66"/>
+      <c r="BA38" s="66"/>
+      <c r="BB38" s="66"/>
+      <c r="BC38" s="66"/>
+      <c r="BD38" s="66"/>
+      <c r="BE38" s="66"/>
+      <c r="BF38" s="66"/>
+      <c r="BG38" s="66"/>
+      <c r="BH38" s="66"/>
+      <c r="BI38" s="66"/>
+      <c r="BJ38" s="66"/>
+      <c r="BK38" s="96"/>
+      <c r="BL38" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM38" s="107"/>
       <c r="BU38" s="24"/>
       <c r="CC38" s="24"/>
       <c r="CK38" s="24"/>
     </row>
-    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89">
       <c r="A39" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I39" s="24"/>
       <c r="Q39" s="24"/>
       <c r="Y39" s="24"/>
-      <c r="Z39" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="57"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28"/>
-      <c r="AK39" s="28"/>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="28"/>
-      <c r="AN39" s="28"/>
-      <c r="AO39" s="28"/>
-      <c r="AP39" s="28"/>
-      <c r="AQ39" s="28"/>
-      <c r="AR39" s="28"/>
-      <c r="AS39" s="28"/>
-      <c r="AT39" s="28"/>
-      <c r="AU39" s="28"/>
-      <c r="AV39" s="28"/>
-      <c r="AW39" s="28"/>
-      <c r="AX39" s="28"/>
-      <c r="AZ39" s="27"/>
-      <c r="BA39" s="27"/>
+      <c r="Z39" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="77"/>
+      <c r="AB39" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="74"/>
+      <c r="AF39" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG39" s="98"/>
+      <c r="AH39" s="98"/>
+      <c r="AI39" s="98"/>
+      <c r="AJ39" s="98"/>
+      <c r="AK39" s="98"/>
+      <c r="AL39" s="99"/>
+      <c r="AM39" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN39" s="104"/>
+      <c r="AO39" s="104"/>
+      <c r="AP39" s="104"/>
+      <c r="AQ39" s="104"/>
+      <c r="AR39" s="104"/>
+      <c r="AS39" s="104"/>
+      <c r="AT39" s="104"/>
+      <c r="AU39" s="104"/>
+      <c r="AV39" s="104"/>
+      <c r="AW39" s="104"/>
+      <c r="AX39" s="104"/>
+      <c r="AZ39" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA39" s="65"/>
       <c r="BM39" s="24"/>
       <c r="BU39" s="24"/>
       <c r="CC39" s="24"/>
       <c r="CK39" s="24"/>
     </row>
-    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89">
       <c r="A40" s="25" t="s">
         <v>41</v>
       </c>
       <c r="I40" s="24"/>
       <c r="Q40" s="24"/>
       <c r="Y40" s="24"/>
-      <c r="Z40" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB40" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="29"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="27"/>
-      <c r="AR40" s="27"/>
-      <c r="AS40" s="27"/>
-      <c r="AT40" s="27"/>
-      <c r="AU40" s="27"/>
-      <c r="AV40" s="27"/>
-      <c r="AW40" s="27"/>
-      <c r="AX40" s="27"/>
-      <c r="AY40" s="27"/>
-      <c r="AZ40" s="28"/>
-      <c r="BA40" s="28"/>
-      <c r="BB40" s="28"/>
+      <c r="Z40" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB40" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="77"/>
+      <c r="AE40" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AN40" s="100"/>
+      <c r="AO40" s="100"/>
+      <c r="AP40" s="100"/>
+      <c r="AQ40" s="100"/>
+      <c r="AR40" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS40" s="100"/>
+      <c r="AT40" s="100"/>
+      <c r="AU40" s="100"/>
+      <c r="AV40" s="100"/>
+      <c r="AW40" s="100"/>
+      <c r="AX40" s="100"/>
+      <c r="AY40" s="100"/>
+      <c r="AZ40" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA40" s="104"/>
+      <c r="BB40" s="104"/>
       <c r="BE40" s="24"/>
       <c r="BM40" s="24"/>
       <c r="BU40" s="24"/>
       <c r="CC40" s="24"/>
       <c r="CK40" s="24"/>
     </row>
-    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B41" s="85">
+    <row r="41" spans="1:89">
+      <c r="B41" s="52">
         <v>1</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85">
-        <v>2</v>
-      </c>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85">
-        <v>5</v>
-      </c>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="85"/>
-      <c r="X41" s="85"/>
-      <c r="Y41" s="85"/>
-      <c r="Z41" s="85">
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52">
+        <v>2</v>
+      </c>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52">
+        <v>5</v>
+      </c>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52">
         <v>6</v>
       </c>
-      <c r="AA41" s="85"/>
-      <c r="AB41" s="85"/>
-      <c r="AC41" s="85"/>
-      <c r="AD41" s="85"/>
-      <c r="AE41" s="85"/>
-      <c r="AF41" s="85"/>
-      <c r="AG41" s="85"/>
-      <c r="AH41" s="85">
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52">
         <v>7</v>
       </c>
-      <c r="AI41" s="85"/>
-      <c r="AJ41" s="85"/>
-      <c r="AK41" s="85"/>
-      <c r="AL41" s="85"/>
-      <c r="AM41" s="85"/>
-      <c r="AN41" s="85"/>
-      <c r="AO41" s="85"/>
-      <c r="AP41" s="85">
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="52"/>
+      <c r="AO41" s="52"/>
+      <c r="AP41" s="52">
         <v>8</v>
       </c>
-      <c r="AQ41" s="85"/>
-      <c r="AR41" s="85"/>
-      <c r="AS41" s="85"/>
-      <c r="AT41" s="85"/>
-      <c r="AU41" s="85"/>
-      <c r="AV41" s="85"/>
-      <c r="AW41" s="85"/>
-      <c r="AX41" s="85">
+      <c r="AQ41" s="52"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52"/>
+      <c r="AT41" s="52"/>
+      <c r="AU41" s="52"/>
+      <c r="AV41" s="52"/>
+      <c r="AW41" s="52"/>
+      <c r="AX41" s="52">
         <v>9</v>
       </c>
-      <c r="AY41" s="85"/>
-      <c r="AZ41" s="85"/>
-      <c r="BA41" s="85"/>
-      <c r="BB41" s="85"/>
-      <c r="BC41" s="85"/>
-      <c r="BD41" s="85"/>
-      <c r="BE41" s="85"/>
-      <c r="BF41" s="85">
+      <c r="AY41" s="52"/>
+      <c r="AZ41" s="52"/>
+      <c r="BA41" s="52"/>
+      <c r="BB41" s="52"/>
+      <c r="BC41" s="52"/>
+      <c r="BD41" s="52"/>
+      <c r="BE41" s="52"/>
+      <c r="BF41" s="52">
         <v>12</v>
       </c>
-      <c r="BG41" s="85"/>
-      <c r="BH41" s="85"/>
-      <c r="BI41" s="85"/>
-      <c r="BJ41" s="85"/>
-      <c r="BK41" s="85"/>
-      <c r="BL41" s="85"/>
-      <c r="BM41" s="85"/>
-      <c r="BN41" s="85">
+      <c r="BG41" s="52"/>
+      <c r="BH41" s="52"/>
+      <c r="BI41" s="52"/>
+      <c r="BJ41" s="52"/>
+      <c r="BK41" s="52"/>
+      <c r="BL41" s="52"/>
+      <c r="BM41" s="52"/>
+      <c r="BN41" s="52">
         <v>13</v>
       </c>
-      <c r="BO41" s="85"/>
-      <c r="BP41" s="85"/>
-      <c r="BQ41" s="85"/>
-      <c r="BR41" s="85"/>
-      <c r="BS41" s="85"/>
-      <c r="BT41" s="85"/>
-      <c r="BU41" s="85"/>
-      <c r="BV41" s="85">
+      <c r="BO41" s="52"/>
+      <c r="BP41" s="52"/>
+      <c r="BQ41" s="52"/>
+      <c r="BR41" s="52"/>
+      <c r="BS41" s="52"/>
+      <c r="BT41" s="52"/>
+      <c r="BU41" s="52"/>
+      <c r="BV41" s="52">
         <v>14</v>
       </c>
-      <c r="BW41" s="85"/>
-      <c r="BX41" s="85"/>
-      <c r="BY41" s="85"/>
-      <c r="BZ41" s="85"/>
-      <c r="CA41" s="85"/>
-      <c r="CB41" s="85"/>
-      <c r="CC41" s="85"/>
-      <c r="CD41" s="85">
+      <c r="BW41" s="52"/>
+      <c r="BX41" s="52"/>
+      <c r="BY41" s="52"/>
+      <c r="BZ41" s="52"/>
+      <c r="CA41" s="52"/>
+      <c r="CB41" s="52"/>
+      <c r="CC41" s="52"/>
+      <c r="CD41" s="52">
         <v>15</v>
       </c>
-      <c r="CE41" s="85"/>
-      <c r="CF41" s="85"/>
-      <c r="CG41" s="85"/>
-      <c r="CH41" s="85"/>
-      <c r="CI41" s="85"/>
-      <c r="CJ41" s="85"/>
-      <c r="CK41" s="85"/>
-    </row>
-    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B42" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="86"/>
-      <c r="T42" s="86"/>
-      <c r="U42" s="86"/>
-      <c r="V42" s="86"/>
-      <c r="W42" s="86"/>
-      <c r="X42" s="86"/>
-      <c r="Y42" s="86"/>
-      <c r="Z42" s="86"/>
-      <c r="AA42" s="86"/>
-      <c r="AB42" s="86"/>
-      <c r="AC42" s="86"/>
-      <c r="AD42" s="86"/>
-      <c r="AE42" s="86"/>
-      <c r="AF42" s="86"/>
-      <c r="AG42" s="86"/>
-      <c r="AH42" s="86"/>
-      <c r="AI42" s="86"/>
-      <c r="AJ42" s="86"/>
-      <c r="AK42" s="86"/>
-      <c r="AL42" s="86"/>
-      <c r="AM42" s="86"/>
-      <c r="AN42" s="86"/>
-      <c r="AO42" s="86"/>
-      <c r="AP42" s="86"/>
-      <c r="AQ42" s="86"/>
-      <c r="AR42" s="86"/>
-      <c r="AS42" s="86"/>
-      <c r="AT42" s="86"/>
-      <c r="AU42" s="86"/>
-      <c r="AV42" s="86"/>
-      <c r="AW42" s="86"/>
-      <c r="AX42" s="86"/>
-      <c r="AY42" s="86"/>
-      <c r="AZ42" s="86"/>
-      <c r="BA42" s="86"/>
-      <c r="BB42" s="86"/>
-      <c r="BC42" s="86"/>
-      <c r="BD42" s="86"/>
-      <c r="BE42" s="86"/>
-      <c r="BF42" s="86"/>
-      <c r="BG42" s="86"/>
-      <c r="BH42" s="86"/>
-      <c r="BI42" s="86"/>
-      <c r="BJ42" s="86"/>
-      <c r="BK42" s="86"/>
-      <c r="BL42" s="86"/>
-      <c r="BM42" s="86"/>
-      <c r="BN42" s="86"/>
-      <c r="BO42" s="86"/>
-      <c r="BP42" s="86"/>
-      <c r="BQ42" s="86"/>
-      <c r="BR42" s="86"/>
-      <c r="BS42" s="86"/>
-      <c r="BT42" s="86"/>
-      <c r="BU42" s="86"/>
-      <c r="BV42" s="86"/>
-      <c r="BW42" s="86"/>
-      <c r="BX42" s="86"/>
-      <c r="BY42" s="86"/>
-      <c r="BZ42" s="86"/>
-      <c r="CA42" s="86"/>
-      <c r="CB42" s="86"/>
-      <c r="CC42" s="86"/>
-      <c r="CD42" s="86"/>
-      <c r="CE42" s="86"/>
-      <c r="CF42" s="86"/>
-      <c r="CG42" s="86"/>
-      <c r="CH42" s="86"/>
-      <c r="CI42" s="86"/>
-      <c r="CJ42" s="86"/>
-      <c r="CK42" s="86"/>
-    </row>
-    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="86"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="86"/>
-      <c r="X43" s="86"/>
-      <c r="Y43" s="86"/>
-      <c r="Z43" s="86"/>
-      <c r="AA43" s="86"/>
-      <c r="AB43" s="86"/>
-      <c r="AC43" s="86"/>
-      <c r="AD43" s="86"/>
-      <c r="AE43" s="86"/>
-      <c r="AF43" s="86"/>
-      <c r="AG43" s="86"/>
-      <c r="AH43" s="86"/>
-      <c r="AI43" s="86"/>
-      <c r="AJ43" s="86"/>
-      <c r="AK43" s="86"/>
-      <c r="AL43" s="86"/>
-      <c r="AM43" s="86"/>
-      <c r="AN43" s="86"/>
-      <c r="AO43" s="86"/>
-      <c r="AP43" s="86"/>
-      <c r="AQ43" s="86"/>
-      <c r="AR43" s="86"/>
-      <c r="AS43" s="86"/>
-      <c r="AT43" s="86"/>
-      <c r="AU43" s="86"/>
-      <c r="AV43" s="86"/>
-      <c r="AW43" s="86"/>
-      <c r="AX43" s="86"/>
-      <c r="AY43" s="86"/>
-      <c r="AZ43" s="86"/>
-      <c r="BA43" s="86"/>
-      <c r="BB43" s="86"/>
-      <c r="BC43" s="86"/>
-      <c r="BD43" s="86"/>
-      <c r="BE43" s="86"/>
-      <c r="BF43" s="86"/>
-      <c r="BG43" s="86"/>
-      <c r="BH43" s="86"/>
-      <c r="BI43" s="86"/>
-      <c r="BJ43" s="86"/>
-      <c r="BK43" s="86"/>
-      <c r="BL43" s="86"/>
-      <c r="BM43" s="86"/>
-      <c r="BN43" s="86"/>
-      <c r="BO43" s="86"/>
-      <c r="BP43" s="86"/>
-      <c r="BQ43" s="86"/>
-      <c r="BR43" s="86"/>
-      <c r="BS43" s="86"/>
-      <c r="BT43" s="86"/>
-      <c r="BU43" s="86"/>
-      <c r="BV43" s="86"/>
-      <c r="BW43" s="86"/>
-      <c r="BX43" s="86"/>
-      <c r="BY43" s="86"/>
-      <c r="BZ43" s="86"/>
-      <c r="CA43" s="86"/>
-      <c r="CB43" s="86"/>
-      <c r="CC43" s="86"/>
-      <c r="CD43" s="86"/>
-      <c r="CE43" s="86"/>
-      <c r="CF43" s="86"/>
-      <c r="CG43" s="86"/>
-      <c r="CH43" s="86"/>
-      <c r="CI43" s="86"/>
-      <c r="CJ43" s="86"/>
-      <c r="CK43" s="86"/>
+      <c r="CE41" s="52"/>
+      <c r="CF41" s="52"/>
+      <c r="CG41" s="52"/>
+      <c r="CH41" s="52"/>
+      <c r="CI41" s="52"/>
+      <c r="CJ41" s="52"/>
+      <c r="CK41" s="52"/>
+    </row>
+    <row r="42" spans="1:89">
+      <c r="B42" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="58"/>
+      <c r="V42" s="58"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="58"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="58"/>
+      <c r="AB42" s="58"/>
+      <c r="AC42" s="58"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="58"/>
+      <c r="AI42" s="58"/>
+      <c r="AJ42" s="58"/>
+      <c r="AK42" s="58"/>
+      <c r="AL42" s="58"/>
+      <c r="AM42" s="58"/>
+      <c r="AN42" s="58"/>
+      <c r="AO42" s="58"/>
+      <c r="AP42" s="58"/>
+      <c r="AQ42" s="58"/>
+      <c r="AR42" s="58"/>
+      <c r="AS42" s="58"/>
+      <c r="AT42" s="58"/>
+      <c r="AU42" s="58"/>
+      <c r="AV42" s="58"/>
+      <c r="AW42" s="58"/>
+      <c r="AX42" s="58"/>
+      <c r="AY42" s="58"/>
+      <c r="AZ42" s="58"/>
+      <c r="BA42" s="58"/>
+      <c r="BB42" s="58"/>
+      <c r="BC42" s="58"/>
+      <c r="BD42" s="58"/>
+      <c r="BE42" s="58"/>
+      <c r="BF42" s="58"/>
+      <c r="BG42" s="58"/>
+      <c r="BH42" s="58"/>
+      <c r="BI42" s="58"/>
+      <c r="BJ42" s="58"/>
+      <c r="BK42" s="58"/>
+      <c r="BL42" s="58"/>
+      <c r="BM42" s="58"/>
+      <c r="BN42" s="58"/>
+      <c r="BO42" s="58"/>
+      <c r="BP42" s="58"/>
+      <c r="BQ42" s="58"/>
+      <c r="BR42" s="58"/>
+      <c r="BS42" s="58"/>
+      <c r="BT42" s="58"/>
+      <c r="BU42" s="58"/>
+      <c r="BV42" s="58"/>
+      <c r="BW42" s="58"/>
+      <c r="BX42" s="58"/>
+      <c r="BY42" s="58"/>
+      <c r="BZ42" s="58"/>
+      <c r="CA42" s="58"/>
+      <c r="CB42" s="58"/>
+      <c r="CC42" s="58"/>
+      <c r="CD42" s="58"/>
+      <c r="CE42" s="58"/>
+      <c r="CF42" s="58"/>
+      <c r="CG42" s="58"/>
+      <c r="CH42" s="58"/>
+      <c r="CI42" s="58"/>
+      <c r="CJ42" s="58"/>
+      <c r="CK42" s="58"/>
+    </row>
+    <row r="43" spans="1:89">
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="58"/>
+      <c r="AL43" s="58"/>
+      <c r="AM43" s="58"/>
+      <c r="AN43" s="58"/>
+      <c r="AO43" s="58"/>
+      <c r="AP43" s="58"/>
+      <c r="AQ43" s="58"/>
+      <c r="AR43" s="58"/>
+      <c r="AS43" s="58"/>
+      <c r="AT43" s="58"/>
+      <c r="AU43" s="58"/>
+      <c r="AV43" s="58"/>
+      <c r="AW43" s="58"/>
+      <c r="AX43" s="58"/>
+      <c r="AY43" s="58"/>
+      <c r="AZ43" s="58"/>
+      <c r="BA43" s="58"/>
+      <c r="BB43" s="58"/>
+      <c r="BC43" s="58"/>
+      <c r="BD43" s="58"/>
+      <c r="BE43" s="58"/>
+      <c r="BF43" s="58"/>
+      <c r="BG43" s="58"/>
+      <c r="BH43" s="58"/>
+      <c r="BI43" s="58"/>
+      <c r="BJ43" s="58"/>
+      <c r="BK43" s="58"/>
+      <c r="BL43" s="58"/>
+      <c r="BM43" s="58"/>
+      <c r="BN43" s="58"/>
+      <c r="BO43" s="58"/>
+      <c r="BP43" s="58"/>
+      <c r="BQ43" s="58"/>
+      <c r="BR43" s="58"/>
+      <c r="BS43" s="58"/>
+      <c r="BT43" s="58"/>
+      <c r="BU43" s="58"/>
+      <c r="BV43" s="58"/>
+      <c r="BW43" s="58"/>
+      <c r="BX43" s="58"/>
+      <c r="BY43" s="58"/>
+      <c r="BZ43" s="58"/>
+      <c r="CA43" s="58"/>
+      <c r="CB43" s="58"/>
+      <c r="CC43" s="58"/>
+      <c r="CD43" s="58"/>
+      <c r="CE43" s="58"/>
+      <c r="CF43" s="58"/>
+      <c r="CG43" s="58"/>
+      <c r="CH43" s="58"/>
+      <c r="CI43" s="58"/>
+      <c r="CJ43" s="58"/>
+      <c r="CK43" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="AP25:AW25"/>
-    <mergeCell ref="AX25:BE25"/>
-    <mergeCell ref="BF25:BM25"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:Y25"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="AH25:AO25"/>
+  <mergeCells count="78">
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="AN38:BK38"/>
+    <mergeCell ref="AM39:AX39"/>
+    <mergeCell ref="AZ39:BA39"/>
+    <mergeCell ref="AZ40:BB40"/>
+    <mergeCell ref="BL38:BM38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="AE40:AI40"/>
+    <mergeCell ref="AF39:AL39"/>
+    <mergeCell ref="AF38:AM38"/>
+    <mergeCell ref="E36:O36"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="BF21:BG21"/>
+    <mergeCell ref="BH19:BJ19"/>
+    <mergeCell ref="BH20:BJ20"/>
+    <mergeCell ref="BH21:BI21"/>
+    <mergeCell ref="BK19:BM19"/>
+    <mergeCell ref="BK20:BM20"/>
+    <mergeCell ref="BK21:BM21"/>
+    <mergeCell ref="AD18:AJ18"/>
+    <mergeCell ref="AK18:AW18"/>
+    <mergeCell ref="AX18:AY18"/>
+    <mergeCell ref="BF19:BG19"/>
+    <mergeCell ref="BF20:BG20"/>
+    <mergeCell ref="L17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="G17:K17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="CD41:CK41"/>
     <mergeCell ref="B42:CK43"/>
@@ -4906,34 +5197,31 @@
     <mergeCell ref="AH41:AO41"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="L17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="AD18:AJ18"/>
-    <mergeCell ref="AK18:AW18"/>
-    <mergeCell ref="AX18:AY18"/>
-    <mergeCell ref="BF19:BG19"/>
-    <mergeCell ref="BF20:BG20"/>
-    <mergeCell ref="BF21:BG21"/>
-    <mergeCell ref="BH19:BJ19"/>
-    <mergeCell ref="BH20:BJ20"/>
-    <mergeCell ref="BH21:BI21"/>
-    <mergeCell ref="BK19:BM19"/>
-    <mergeCell ref="BK20:BM20"/>
-    <mergeCell ref="BK21:BM21"/>
-    <mergeCell ref="E36:O36"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="AP25:AW25"/>
+    <mergeCell ref="AX25:BE25"/>
+    <mergeCell ref="BF25:BM25"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:Y25"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="AH25:AO25"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4945,11 +5233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB4E579-7BC5-40AD-8BFA-75A33CAF6CF7}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:G26"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -4960,615 +5248,558 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
+      <c r="A1" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59">
         <v>1</v>
       </c>
-      <c r="C3" s="87">
-        <v>2</v>
-      </c>
-      <c r="D3" s="87">
-        <v>3</v>
-      </c>
-      <c r="E3" s="87">
-        <v>4</v>
-      </c>
-      <c r="F3" s="87">
-        <v>5</v>
-      </c>
-      <c r="G3" s="87">
+      <c r="C3" s="59">
+        <v>2</v>
+      </c>
+      <c r="D3" s="59">
+        <v>3</v>
+      </c>
+      <c r="E3" s="59">
+        <v>4</v>
+      </c>
+      <c r="F3" s="59">
+        <v>5</v>
+      </c>
+      <c r="G3" s="59">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="99" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="59">
+        <v>12</v>
+      </c>
+      <c r="G7" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" ht="27" customHeight="1">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="59">
+        <v>14</v>
+      </c>
+      <c r="B11" s="59">
+        <v>15</v>
+      </c>
+      <c r="C11" s="59">
+        <v>16</v>
+      </c>
+      <c r="D11" s="59">
+        <v>17</v>
+      </c>
+      <c r="E11" s="59">
+        <v>18</v>
+      </c>
+      <c r="F11" s="59">
+        <v>19</v>
+      </c>
+      <c r="G11" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="89">
+        <v>26</v>
+      </c>
+      <c r="G15" s="59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="59">
+        <v>28</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="B27" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="87">
-        <v>12</v>
-      </c>
-      <c r="G7" s="87">
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59">
+        <v>1</v>
+      </c>
+      <c r="E28" s="59">
+        <v>2</v>
+      </c>
+      <c r="F28" s="59">
+        <v>3</v>
+      </c>
+      <c r="G28" s="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="89">
+        <v>7</v>
+      </c>
+      <c r="D32" s="89">
+        <v>8</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="89">
+        <v>10</v>
+      </c>
+      <c r="G32" s="89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="59">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-    </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="87">
+      <c r="C36" s="59">
         <v>14</v>
       </c>
-      <c r="B11" s="87">
+      <c r="D36" s="59">
         <v>15</v>
       </c>
-      <c r="C11" s="87">
+      <c r="E36" s="59">
         <v>16</v>
       </c>
-      <c r="D11" s="87">
+      <c r="F36" s="59">
         <v>17</v>
       </c>
-      <c r="E11" s="87">
+      <c r="G36" s="59">
         <v>18</v>
       </c>
-      <c r="F11" s="87">
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="89">
         <v>19</v>
       </c>
-      <c r="G11" s="87">
+      <c r="B40" s="89">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="41">
+      <c r="C40" s="89">
+        <v>21</v>
+      </c>
+      <c r="D40" s="89">
+        <v>22</v>
+      </c>
+      <c r="E40" s="89">
+        <v>23</v>
+      </c>
+      <c r="F40" s="89">
         <v>24</v>
       </c>
-      <c r="E15" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="87">
+      <c r="G40" s="89">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="59">
         <v>26</v>
       </c>
-      <c r="G15" s="87">
+      <c r="B44" s="59">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="87">
+      <c r="C44" s="59">
         <v>28</v>
       </c>
-      <c r="B19" s="87">
+      <c r="D44" s="59">
         <v>29</v>
       </c>
-      <c r="C19" s="87">
+      <c r="E44" s="59">
         <v>30</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87">
-        <v>1</v>
-      </c>
-      <c r="E28" s="87">
-        <v>2</v>
-      </c>
-      <c r="F28" s="87">
-        <v>3</v>
-      </c>
-      <c r="G28" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="99">
-        <v>5</v>
-      </c>
-      <c r="B32" s="99">
-        <v>6</v>
-      </c>
-      <c r="C32" s="99">
-        <v>7</v>
-      </c>
-      <c r="D32" s="99">
-        <v>8</v>
-      </c>
-      <c r="E32" s="99">
-        <v>9</v>
-      </c>
-      <c r="F32" s="99">
-        <v>10</v>
-      </c>
-      <c r="G32" s="99">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="87">
-        <v>12</v>
-      </c>
-      <c r="B36" s="87">
-        <v>13</v>
-      </c>
-      <c r="C36" s="87">
-        <v>14</v>
-      </c>
-      <c r="D36" s="87">
-        <v>15</v>
-      </c>
-      <c r="E36" s="87">
-        <v>16</v>
-      </c>
-      <c r="F36" s="87">
-        <v>17</v>
-      </c>
-      <c r="G36" s="87">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="87"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="99">
-        <v>19</v>
-      </c>
-      <c r="B40" s="99">
-        <v>20</v>
-      </c>
-      <c r="C40" s="99">
-        <v>21</v>
-      </c>
-      <c r="D40" s="99">
-        <v>22</v>
-      </c>
-      <c r="E40" s="99">
-        <v>23</v>
-      </c>
-      <c r="F40" s="99">
-        <v>24</v>
-      </c>
-      <c r="G40" s="99">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="87"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="87">
-        <v>26</v>
-      </c>
-      <c r="B44" s="87">
-        <v>27</v>
-      </c>
-      <c r="C44" s="87">
-        <v>28</v>
-      </c>
-      <c r="D44" s="87">
-        <v>29</v>
-      </c>
-      <c r="E44" s="87">
-        <v>30</v>
-      </c>
-      <c r="F44" s="87">
+      <c r="F44" s="59">
         <v>31</v>
       </c>
-      <c r="G44" s="87"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="87"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="87"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="87"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="G44" s="59"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A11:A14"/>
+  <mergeCells count="72">
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="G15:G18"/>
@@ -5585,6 +5816,62 @@
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
